--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>834.8753564069082</v>
+        <v>1001.178732776345</v>
       </c>
       <c r="AB2" t="n">
-        <v>1142.313294737178</v>
+        <v>1369.856911073002</v>
       </c>
       <c r="AC2" t="n">
-        <v>1033.292517134239</v>
+        <v>1239.119690086444</v>
       </c>
       <c r="AD2" t="n">
-        <v>834875.3564069081</v>
+        <v>1001178.732776345</v>
       </c>
       <c r="AE2" t="n">
-        <v>1142313.294737178</v>
+        <v>1369856.911073002</v>
       </c>
       <c r="AF2" t="n">
         <v>4.755024654956255e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.0078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1033292.517134239</v>
+        <v>1239119.690086444</v>
       </c>
     </row>
     <row r="3">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>452.486006137775</v>
+        <v>560.0582548851215</v>
       </c>
       <c r="AB3" t="n">
-        <v>619.1113158714287</v>
+        <v>766.2964123602246</v>
       </c>
       <c r="AC3" t="n">
-        <v>560.0242008128481</v>
+        <v>693.1621582683337</v>
       </c>
       <c r="AD3" t="n">
-        <v>452486.006137775</v>
+        <v>560058.2548851215</v>
       </c>
       <c r="AE3" t="n">
-        <v>619111.3158714287</v>
+        <v>766296.4123602246</v>
       </c>
       <c r="AF3" t="n">
         <v>7.364695203014534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.30859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>560024.2008128481</v>
+        <v>693162.1582683336</v>
       </c>
     </row>
     <row r="4">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.6389277056425</v>
+        <v>476.4899749903452</v>
       </c>
       <c r="AB4" t="n">
-        <v>518.0704852574162</v>
+        <v>651.9546050358822</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.6265652609404</v>
+        <v>589.7329725552919</v>
       </c>
       <c r="AD4" t="n">
-        <v>378638.9277056425</v>
+        <v>476489.9749903452</v>
       </c>
       <c r="AE4" t="n">
-        <v>518070.4852574161</v>
+        <v>651954.6050358822</v>
       </c>
       <c r="AF4" t="n">
         <v>8.338409692031382e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.82161458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>468626.5652609403</v>
+        <v>589732.9725552918</v>
       </c>
     </row>
     <row r="5">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>350.7691972226</v>
+        <v>438.8658886557351</v>
       </c>
       <c r="AB5" t="n">
-        <v>479.937890484784</v>
+        <v>600.4756702553265</v>
       </c>
       <c r="AC5" t="n">
-        <v>434.1332918139753</v>
+        <v>543.1671150590537</v>
       </c>
       <c r="AD5" t="n">
-        <v>350769.1972226</v>
+        <v>438865.8886557351</v>
       </c>
       <c r="AE5" t="n">
-        <v>479937.890484784</v>
+        <v>600475.6702553264</v>
       </c>
       <c r="AF5" t="n">
         <v>8.844191568227805e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.74739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>434133.2918139753</v>
+        <v>543167.1150590536</v>
       </c>
     </row>
     <row r="6">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>340.1339782302901</v>
+        <v>418.4089940041533</v>
       </c>
       <c r="AB6" t="n">
-        <v>465.3863146667577</v>
+        <v>572.4856444985351</v>
       </c>
       <c r="AC6" t="n">
-        <v>420.9704979687566</v>
+        <v>517.8484180762425</v>
       </c>
       <c r="AD6" t="n">
-        <v>340133.9782302901</v>
+        <v>418408.9940041533</v>
       </c>
       <c r="AE6" t="n">
-        <v>465386.3146667577</v>
+        <v>572485.6444985351</v>
       </c>
       <c r="AF6" t="n">
         <v>9.163861142983028e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>18</v>
+        <v>17.12890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>420970.4979687566</v>
+        <v>517848.4180762426</v>
       </c>
     </row>
     <row r="7">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>323.3564707288623</v>
+        <v>411.4189967432167</v>
       </c>
       <c r="AB7" t="n">
-        <v>442.4305887319119</v>
+        <v>562.9216218692065</v>
       </c>
       <c r="AC7" t="n">
-        <v>400.2056342985687</v>
+        <v>509.197172343467</v>
       </c>
       <c r="AD7" t="n">
-        <v>323356.4707288623</v>
+        <v>411418.9967432166</v>
       </c>
       <c r="AE7" t="n">
-        <v>442430.5887319119</v>
+        <v>562921.6218692065</v>
       </c>
       <c r="AF7" t="n">
         <v>9.380831442590644e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.73177083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>400205.6342985687</v>
+        <v>509197.172343467</v>
       </c>
     </row>
     <row r="8">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>317.6152426000452</v>
+        <v>395.8560929551276</v>
       </c>
       <c r="AB8" t="n">
-        <v>434.5751871209553</v>
+        <v>541.6277703194847</v>
       </c>
       <c r="AC8" t="n">
-        <v>393.0999411922364</v>
+        <v>489.9355760995425</v>
       </c>
       <c r="AD8" t="n">
-        <v>317615.2426000452</v>
+        <v>395856.0929551276</v>
       </c>
       <c r="AE8" t="n">
-        <v>434575.1871209553</v>
+        <v>541627.7703194848</v>
       </c>
       <c r="AF8" t="n">
         <v>9.559470322600914e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.41927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>393099.9411922364</v>
+        <v>489935.5760995424</v>
       </c>
     </row>
     <row r="9">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>313.9298687715587</v>
+        <v>392.1707191266411</v>
       </c>
       <c r="AB9" t="n">
-        <v>429.5326960616017</v>
+        <v>536.5852792601312</v>
       </c>
       <c r="AC9" t="n">
-        <v>388.5386984024068</v>
+        <v>485.3743333097128</v>
       </c>
       <c r="AD9" t="n">
-        <v>313929.8687715587</v>
+        <v>392170.7191266411</v>
       </c>
       <c r="AE9" t="n">
-        <v>429532.6960616016</v>
+        <v>536585.2792601312</v>
       </c>
       <c r="AF9" t="n">
         <v>9.671571644064849e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.23046875</v>
       </c>
       <c r="AH9" t="n">
-        <v>388538.6984024068</v>
+        <v>485374.3333097128</v>
       </c>
     </row>
     <row r="10">
@@ -6550,28 +6550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>310.9719450846173</v>
+        <v>389.2127954396997</v>
       </c>
       <c r="AB10" t="n">
-        <v>425.4855343787451</v>
+        <v>532.5381175772746</v>
       </c>
       <c r="AC10" t="n">
-        <v>384.877792150335</v>
+        <v>481.7134270576411</v>
       </c>
       <c r="AD10" t="n">
-        <v>310971.9450846173</v>
+        <v>389212.7954396997</v>
       </c>
       <c r="AE10" t="n">
-        <v>425485.5343787451</v>
+        <v>532538.1175772747</v>
       </c>
       <c r="AF10" t="n">
         <v>9.762458091789374e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>16.07421875</v>
       </c>
       <c r="AH10" t="n">
-        <v>384877.792150335</v>
+        <v>481713.4270576411</v>
       </c>
     </row>
     <row r="11">
@@ -6656,28 +6656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>298.9036605686172</v>
+        <v>386.9320211641907</v>
       </c>
       <c r="AB11" t="n">
-        <v>408.9731750888169</v>
+        <v>529.4174615928638</v>
       </c>
       <c r="AC11" t="n">
-        <v>369.9413492557957</v>
+        <v>478.8906021005141</v>
       </c>
       <c r="AD11" t="n">
-        <v>298903.6605686172</v>
+        <v>386932.0211641907</v>
       </c>
       <c r="AE11" t="n">
-        <v>408973.1750888169</v>
+        <v>529417.4615928638</v>
       </c>
       <c r="AF11" t="n">
         <v>9.821763307015456e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.98307291666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>369941.3492557957</v>
+        <v>478890.6021005141</v>
       </c>
     </row>
     <row r="12">
@@ -6762,28 +6762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>296.2888181608659</v>
+        <v>384.3171787564395</v>
       </c>
       <c r="AB12" t="n">
-        <v>405.3954323478262</v>
+        <v>525.8397188518729</v>
       </c>
       <c r="AC12" t="n">
-        <v>366.7050612606117</v>
+        <v>475.6543141053301</v>
       </c>
       <c r="AD12" t="n">
-        <v>296288.8181608659</v>
+        <v>384317.1787564395</v>
       </c>
       <c r="AE12" t="n">
-        <v>405395.4323478262</v>
+        <v>525839.718851873</v>
       </c>
       <c r="AF12" t="n">
         <v>9.88444361579099e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.87890625</v>
       </c>
       <c r="AH12" t="n">
-        <v>366705.0612606117</v>
+        <v>475654.31410533</v>
       </c>
     </row>
     <row r="13">
@@ -6868,28 +6868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>294.0296125199227</v>
+        <v>372.3377826827094</v>
       </c>
       <c r="AB13" t="n">
-        <v>402.304287520769</v>
+        <v>509.4489806501401</v>
       </c>
       <c r="AC13" t="n">
-        <v>363.9089309573998</v>
+        <v>460.8278849530249</v>
       </c>
       <c r="AD13" t="n">
-        <v>294029.6125199227</v>
+        <v>372337.7826827094</v>
       </c>
       <c r="AE13" t="n">
-        <v>402304.2875207691</v>
+        <v>509448.9806501401</v>
       </c>
       <c r="AF13" t="n">
         <v>9.944230987238421e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.78125</v>
       </c>
       <c r="AH13" t="n">
-        <v>363908.9309573998</v>
+        <v>460827.8849530249</v>
       </c>
     </row>
     <row r="14">
@@ -6974,28 +6974,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>292.2056590997099</v>
+        <v>370.5138292624966</v>
       </c>
       <c r="AB14" t="n">
-        <v>399.8086739840881</v>
+        <v>506.9533671134591</v>
       </c>
       <c r="AC14" t="n">
-        <v>361.6514952740441</v>
+        <v>458.5704492696693</v>
       </c>
       <c r="AD14" t="n">
-        <v>292205.6590997099</v>
+        <v>370513.8292624967</v>
       </c>
       <c r="AE14" t="n">
-        <v>399808.6739840881</v>
+        <v>506953.3671134592</v>
       </c>
       <c r="AF14" t="n">
         <v>9.976776532179562e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>361651.4952740441</v>
+        <v>458570.4492696692</v>
       </c>
     </row>
     <row r="15">
@@ -7080,28 +7080,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>289.5607392673157</v>
+        <v>367.8689094301025</v>
       </c>
       <c r="AB15" t="n">
-        <v>396.1897779837786</v>
+        <v>503.3344711131497</v>
       </c>
       <c r="AC15" t="n">
-        <v>358.3779816288517</v>
+        <v>455.2969356244769</v>
       </c>
       <c r="AD15" t="n">
-        <v>289560.7392673157</v>
+        <v>367868.9094301024</v>
       </c>
       <c r="AE15" t="n">
-        <v>396189.7779837786</v>
+        <v>503334.4711131497</v>
       </c>
       <c r="AF15" t="n">
         <v>1.004307301261522e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.625</v>
       </c>
       <c r="AH15" t="n">
-        <v>358377.9816288517</v>
+        <v>455296.9356244769</v>
       </c>
     </row>
     <row r="16">
@@ -7186,28 +7186,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>287.7691139035556</v>
+        <v>366.0772840663424</v>
       </c>
       <c r="AB16" t="n">
-        <v>393.7383971201494</v>
+        <v>500.8830902495206</v>
       </c>
       <c r="AC16" t="n">
-        <v>356.1605571143128</v>
+        <v>453.0795111099379</v>
       </c>
       <c r="AD16" t="n">
-        <v>287769.1139035557</v>
+        <v>366077.2840663424</v>
       </c>
       <c r="AE16" t="n">
-        <v>393738.3971201495</v>
+        <v>500883.0902495206</v>
       </c>
       <c r="AF16" t="n">
         <v>1.007561855755637e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.57942708333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>356160.5571143128</v>
+        <v>453079.5111099379</v>
       </c>
     </row>
     <row r="17">
@@ -7292,28 +7292,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>286.1538021674664</v>
+        <v>364.4619723302532</v>
       </c>
       <c r="AB17" t="n">
-        <v>391.528256340308</v>
+        <v>498.6729494696791</v>
       </c>
       <c r="AC17" t="n">
-        <v>354.1613490685472</v>
+        <v>451.0803030641723</v>
       </c>
       <c r="AD17" t="n">
-        <v>286153.8021674664</v>
+        <v>364461.9723302532</v>
       </c>
       <c r="AE17" t="n">
-        <v>391528.256340308</v>
+        <v>498672.949469679</v>
       </c>
       <c r="AF17" t="n">
         <v>1.010744086816548e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.52734375</v>
       </c>
       <c r="AH17" t="n">
-        <v>354161.3490685472</v>
+        <v>451080.3030641723</v>
       </c>
     </row>
     <row r="18">
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>285.501320156078</v>
+        <v>363.8094903188647</v>
       </c>
       <c r="AB18" t="n">
-        <v>390.6355016668514</v>
+        <v>497.7801947962225</v>
       </c>
       <c r="AC18" t="n">
-        <v>353.3537976481363</v>
+        <v>450.2727516437614</v>
       </c>
       <c r="AD18" t="n">
-        <v>285501.320156078</v>
+        <v>363809.4903188647</v>
       </c>
       <c r="AE18" t="n">
-        <v>390635.5016668514</v>
+        <v>497780.1947962225</v>
       </c>
       <c r="AF18" t="n">
         <v>1.010044960295591e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.54036458333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>353353.7976481363</v>
+        <v>450272.7516437614</v>
       </c>
     </row>
     <row r="19">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>283.4689453472407</v>
+        <v>361.6756302835422</v>
       </c>
       <c r="AB19" t="n">
-        <v>387.8547167913517</v>
+        <v>494.8605533566335</v>
       </c>
       <c r="AC19" t="n">
-        <v>350.8384069782982</v>
+        <v>447.6317566854244</v>
       </c>
       <c r="AD19" t="n">
-        <v>283468.9453472407</v>
+        <v>361675.6302835422</v>
       </c>
       <c r="AE19" t="n">
-        <v>387854.7167913517</v>
+        <v>494860.5533566335</v>
       </c>
       <c r="AF19" t="n">
         <v>1.013709347577853e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.48177083333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>350838.4069782982</v>
+        <v>447631.7566854244</v>
       </c>
     </row>
     <row r="20">
@@ -7610,28 +7610,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>282.1769657128433</v>
+        <v>360.3836506491448</v>
       </c>
       <c r="AB20" t="n">
-        <v>386.0869732574505</v>
+        <v>493.0928098227322</v>
       </c>
       <c r="AC20" t="n">
-        <v>349.2393744062289</v>
+        <v>446.032724113355</v>
       </c>
       <c r="AD20" t="n">
-        <v>282176.9657128433</v>
+        <v>360383.6506491448</v>
       </c>
       <c r="AE20" t="n">
-        <v>386086.9732574505</v>
+        <v>493092.8098227322</v>
       </c>
       <c r="AF20" t="n">
         <v>1.016650500528089e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.43619791666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>349239.3744062289</v>
+        <v>446032.724113355</v>
       </c>
     </row>
     <row r="21">
@@ -7716,28 +7716,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>280.8725955998621</v>
+        <v>359.0792805361637</v>
       </c>
       <c r="AB21" t="n">
-        <v>384.3022765241215</v>
+        <v>491.3081130894034</v>
       </c>
       <c r="AC21" t="n">
-        <v>347.6250066242913</v>
+        <v>444.4183563314174</v>
       </c>
       <c r="AD21" t="n">
-        <v>280872.5955998621</v>
+        <v>359079.2805361637</v>
       </c>
       <c r="AE21" t="n">
-        <v>384302.2765241215</v>
+        <v>491308.1130894034</v>
       </c>
       <c r="AF21" t="n">
         <v>1.016578177094887e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.43619791666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>347625.0066242913</v>
+        <v>444418.3563314174</v>
       </c>
     </row>
     <row r="22">
@@ -7822,28 +7822,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>281.143931150445</v>
+        <v>359.3506160867466</v>
       </c>
       <c r="AB22" t="n">
-        <v>384.6735297949087</v>
+        <v>491.6793663601906</v>
       </c>
       <c r="AC22" t="n">
-        <v>347.9608280039718</v>
+        <v>444.754177711098</v>
       </c>
       <c r="AD22" t="n">
-        <v>281143.931150445</v>
+        <v>359350.6160867466</v>
       </c>
       <c r="AE22" t="n">
-        <v>384673.5297949088</v>
+        <v>491679.3663601906</v>
       </c>
       <c r="AF22" t="n">
         <v>1.015903158384996e-05</v>
       </c>
       <c r="AG22" t="n">
-        <v>16</v>
+        <v>15.44921875</v>
       </c>
       <c r="AH22" t="n">
-        <v>347960.8280039718</v>
+        <v>444754.1777110979</v>
       </c>
     </row>
     <row r="23">
@@ -7928,28 +7928,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>281.4648682421364</v>
+        <v>359.671553178438</v>
       </c>
       <c r="AB23" t="n">
-        <v>385.1126500825062</v>
+        <v>492.118486647788</v>
       </c>
       <c r="AC23" t="n">
-        <v>348.3580392676301</v>
+        <v>445.1513889747562</v>
       </c>
       <c r="AD23" t="n">
-        <v>281464.8682421364</v>
+        <v>359671.553178438</v>
       </c>
       <c r="AE23" t="n">
-        <v>385112.6500825062</v>
+        <v>492118.486647788</v>
       </c>
       <c r="AF23" t="n">
         <v>1.016240667739941e-05</v>
       </c>
       <c r="AG23" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH23" t="n">
-        <v>348358.0392676301</v>
+        <v>445151.3889747562</v>
       </c>
     </row>
   </sheetData>
@@ -8225,28 +8225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>618.2279805606562</v>
+        <v>763.3678869747163</v>
       </c>
       <c r="AB2" t="n">
-        <v>845.8867972966699</v>
+        <v>1044.473620373148</v>
       </c>
       <c r="AC2" t="n">
-        <v>765.1565485722514</v>
+        <v>944.7905239726673</v>
       </c>
       <c r="AD2" t="n">
-        <v>618227.9805606562</v>
+        <v>763367.8869747163</v>
       </c>
       <c r="AE2" t="n">
-        <v>845886.7972966699</v>
+        <v>1044473.620373148</v>
       </c>
       <c r="AF2" t="n">
         <v>6.136139576459035e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.98828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>765156.5485722513</v>
+        <v>944790.5239726673</v>
       </c>
     </row>
     <row r="3">
@@ -8331,28 +8331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>383.2392916254077</v>
+        <v>480.0447831264889</v>
       </c>
       <c r="AB3" t="n">
-        <v>524.3649061261714</v>
+        <v>656.8184503548205</v>
       </c>
       <c r="AC3" t="n">
-        <v>474.3202554362566</v>
+        <v>594.1326193034406</v>
       </c>
       <c r="AD3" t="n">
-        <v>383239.2916254077</v>
+        <v>480044.7831264889</v>
       </c>
       <c r="AE3" t="n">
-        <v>524364.9061261714</v>
+        <v>656818.4503548205</v>
       </c>
       <c r="AF3" t="n">
         <v>8.692468724230703e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.75911458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>474320.2554362566</v>
+        <v>594132.6193034406</v>
       </c>
     </row>
     <row r="4">
@@ -8437,28 +8437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.4776993813997</v>
+        <v>430.2148600449192</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.2789002914082</v>
+        <v>588.6389512535619</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.732282439054</v>
+        <v>532.4600759058779</v>
       </c>
       <c r="AD4" t="n">
-        <v>333477.6993813997</v>
+        <v>430214.8600449192</v>
       </c>
       <c r="AE4" t="n">
-        <v>456278.9002914082</v>
+        <v>588638.9512535619</v>
       </c>
       <c r="AF4" t="n">
         <v>9.612810525548971e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.86458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>412732.282439054</v>
+        <v>532460.075905878</v>
       </c>
     </row>
     <row r="5">
@@ -8543,28 +8543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.0446867777002</v>
+        <v>397.1354637098923</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.2168186554717</v>
+        <v>543.3782618280084</v>
       </c>
       <c r="AC5" t="n">
-        <v>383.7301608750371</v>
+        <v>491.5190031553227</v>
       </c>
       <c r="AD5" t="n">
-        <v>310044.6867777002</v>
+        <v>397135.4637098924</v>
       </c>
       <c r="AE5" t="n">
-        <v>424216.8186554717</v>
+        <v>543378.2618280083</v>
       </c>
       <c r="AF5" t="n">
         <v>1.010582251370141e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.9921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>383730.1608750371</v>
+        <v>491519.0031553226</v>
       </c>
     </row>
     <row r="6">
@@ -8649,28 +8649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>302.4051678855446</v>
+        <v>389.4959448177368</v>
       </c>
       <c r="AB6" t="n">
-        <v>413.7640918754374</v>
+        <v>532.925535047974</v>
       </c>
       <c r="AC6" t="n">
-        <v>374.2750276683951</v>
+        <v>482.0638699486807</v>
       </c>
       <c r="AD6" t="n">
-        <v>302405.1678855446</v>
+        <v>389495.9448177368</v>
       </c>
       <c r="AE6" t="n">
-        <v>413764.0918754374</v>
+        <v>532925.535047974</v>
       </c>
       <c r="AF6" t="n">
         <v>1.03856971629415e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.53645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>374275.0276683951</v>
+        <v>482063.8699486807</v>
       </c>
     </row>
     <row r="7">
@@ -8755,28 +8755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>296.5896327584457</v>
+        <v>373.9667061516061</v>
       </c>
       <c r="AB7" t="n">
-        <v>405.8070201512381</v>
+        <v>511.6777456033161</v>
       </c>
       <c r="AC7" t="n">
-        <v>367.0773677017331</v>
+        <v>462.8439397071612</v>
       </c>
       <c r="AD7" t="n">
-        <v>296589.6327584457</v>
+        <v>373966.7061516061</v>
       </c>
       <c r="AE7" t="n">
-        <v>405807.0201512381</v>
+        <v>511677.7456033161</v>
       </c>
       <c r="AF7" t="n">
         <v>1.059355882514809e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.2109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>367077.3677017331</v>
+        <v>462843.9397071612</v>
       </c>
     </row>
     <row r="8">
@@ -8861,28 +8861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>282.9258858118927</v>
+        <v>369.9824973253041</v>
       </c>
       <c r="AB8" t="n">
-        <v>387.1116787769928</v>
+        <v>506.2263753162816</v>
       </c>
       <c r="AC8" t="n">
-        <v>350.1662834691693</v>
+        <v>457.9128405492749</v>
       </c>
       <c r="AD8" t="n">
-        <v>282925.8858118927</v>
+        <v>369982.4973253041</v>
       </c>
       <c r="AE8" t="n">
-        <v>387111.6787769928</v>
+        <v>506226.3753162816</v>
       </c>
       <c r="AF8" t="n">
         <v>1.073494696086222e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.99609375</v>
       </c>
       <c r="AH8" t="n">
-        <v>350166.2834691693</v>
+        <v>457912.8405492749</v>
       </c>
     </row>
     <row r="9">
@@ -8967,28 +8967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>279.1886070651062</v>
+        <v>356.6330002659711</v>
       </c>
       <c r="AB9" t="n">
-        <v>381.9981691185377</v>
+        <v>487.961004501457</v>
       </c>
       <c r="AC9" t="n">
-        <v>345.5407999956612</v>
+        <v>441.3906910894083</v>
       </c>
       <c r="AD9" t="n">
-        <v>279188.6070651062</v>
+        <v>356633.0002659711</v>
       </c>
       <c r="AE9" t="n">
-        <v>381998.1691185377</v>
+        <v>487961.004501457</v>
       </c>
       <c r="AF9" t="n">
         <v>1.086050806645909e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.81380208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>345540.7999956612</v>
+        <v>441390.6910894084</v>
       </c>
     </row>
     <row r="10">
@@ -9073,28 +9073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>276.8001348695489</v>
+        <v>354.2445280704138</v>
       </c>
       <c r="AB10" t="n">
-        <v>378.7301560886197</v>
+        <v>484.6929914715391</v>
       </c>
       <c r="AC10" t="n">
-        <v>342.5846815426336</v>
+        <v>438.4345726363807</v>
       </c>
       <c r="AD10" t="n">
-        <v>276800.1348695489</v>
+        <v>354244.5280704138</v>
       </c>
       <c r="AE10" t="n">
-        <v>378730.1560886197</v>
+        <v>484692.9914715391</v>
       </c>
       <c r="AF10" t="n">
         <v>1.092065078090465e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.72265625</v>
       </c>
       <c r="AH10" t="n">
-        <v>342584.6815426336</v>
+        <v>438434.5726363807</v>
       </c>
     </row>
     <row r="11">
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>273.7057795263976</v>
+        <v>351.1501727272626</v>
       </c>
       <c r="AB11" t="n">
-        <v>374.496322594797</v>
+        <v>480.4591579777165</v>
       </c>
       <c r="AC11" t="n">
-        <v>338.7549191752387</v>
+        <v>434.6048102689859</v>
       </c>
       <c r="AD11" t="n">
-        <v>273705.7795263976</v>
+        <v>351150.1727272626</v>
       </c>
       <c r="AE11" t="n">
-        <v>374496.3225947971</v>
+        <v>480459.1579777165</v>
       </c>
       <c r="AF11" t="n">
         <v>1.101271133942001e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.59244791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>338754.9191752388</v>
+        <v>434604.8102689859</v>
       </c>
     </row>
     <row r="12">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>271.5580115700271</v>
+        <v>349.002404770892</v>
       </c>
       <c r="AB12" t="n">
-        <v>371.557651724056</v>
+        <v>477.5204871069754</v>
       </c>
       <c r="AC12" t="n">
-        <v>336.0967109279507</v>
+        <v>431.9466020216979</v>
       </c>
       <c r="AD12" t="n">
-        <v>271558.0115700271</v>
+        <v>349002.4047708921</v>
       </c>
       <c r="AE12" t="n">
-        <v>371557.651724056</v>
+        <v>477520.4871069754</v>
       </c>
       <c r="AF12" t="n">
         <v>1.10446291834898e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.546875</v>
       </c>
       <c r="AH12" t="n">
-        <v>336096.7109279507</v>
+        <v>431946.6020216979</v>
       </c>
     </row>
     <row r="13">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>268.6622089044685</v>
+        <v>346.0051168788481</v>
       </c>
       <c r="AB13" t="n">
-        <v>367.5954867632414</v>
+        <v>473.4194655820714</v>
       </c>
       <c r="AC13" t="n">
-        <v>332.5126894300628</v>
+        <v>428.2369762353109</v>
       </c>
       <c r="AD13" t="n">
-        <v>268662.2089044685</v>
+        <v>346005.1168788481</v>
       </c>
       <c r="AE13" t="n">
-        <v>367595.4867632414</v>
+        <v>473419.4655820715</v>
       </c>
       <c r="AF13" t="n">
         <v>1.111743352202917e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.44921875</v>
       </c>
       <c r="AH13" t="n">
-        <v>332512.6894300628</v>
+        <v>428236.9762353109</v>
       </c>
     </row>
     <row r="14">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>267.0544098363767</v>
+        <v>344.3973178107564</v>
       </c>
       <c r="AB14" t="n">
-        <v>365.3956251471895</v>
+        <v>471.2196039660196</v>
       </c>
       <c r="AC14" t="n">
-        <v>330.5227795191217</v>
+        <v>426.2470663243699</v>
       </c>
       <c r="AD14" t="n">
-        <v>267054.4098363767</v>
+        <v>344397.3178107564</v>
       </c>
       <c r="AE14" t="n">
-        <v>365395.6251471895</v>
+        <v>471219.6039660196</v>
       </c>
       <c r="AF14" t="n">
         <v>1.113827244501689e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>330522.7795191217</v>
+        <v>426247.0663243699</v>
       </c>
     </row>
     <row r="15">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>265.8027583394939</v>
+        <v>343.1456663138736</v>
       </c>
       <c r="AB15" t="n">
-        <v>363.6830603501876</v>
+        <v>469.5070391690177</v>
       </c>
       <c r="AC15" t="n">
-        <v>328.9736595027459</v>
+        <v>424.697946307994</v>
       </c>
       <c r="AD15" t="n">
-        <v>265802.7583394939</v>
+        <v>343145.6663138736</v>
       </c>
       <c r="AE15" t="n">
-        <v>363683.0603501876</v>
+        <v>469507.0391690177</v>
       </c>
       <c r="AF15" t="n">
         <v>1.117652110113358e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>328973.659502746</v>
+        <v>424697.946307994</v>
       </c>
     </row>
     <row r="16">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>265.3885427062996</v>
+        <v>342.7314506806793</v>
       </c>
       <c r="AB16" t="n">
-        <v>363.1163122469471</v>
+        <v>468.9402910657772</v>
       </c>
       <c r="AC16" t="n">
-        <v>328.4610010430428</v>
+        <v>424.1852878482909</v>
       </c>
       <c r="AD16" t="n">
-        <v>265388.5427062996</v>
+        <v>342731.4506806793</v>
       </c>
       <c r="AE16" t="n">
-        <v>363116.3122469471</v>
+        <v>468940.2910657772</v>
       </c>
       <c r="AF16" t="n">
         <v>1.117652110113358e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>328461.0010430428</v>
+        <v>424185.2878482909</v>
       </c>
     </row>
     <row r="17">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>265.9433618866405</v>
+        <v>343.2862698610202</v>
       </c>
       <c r="AB17" t="n">
-        <v>363.8754403263841</v>
+        <v>469.6994191452143</v>
       </c>
       <c r="AC17" t="n">
-        <v>329.1476790040213</v>
+        <v>424.8719658092693</v>
       </c>
       <c r="AD17" t="n">
-        <v>265943.3618866405</v>
+        <v>343286.2698610201</v>
       </c>
       <c r="AE17" t="n">
-        <v>363875.4403263842</v>
+        <v>469699.4191452143</v>
       </c>
       <c r="AF17" t="n">
         <v>1.117493839812185e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>329147.6790040213</v>
+        <v>424871.9658092693</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.6824972616853</v>
+        <v>414.2373146589505</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.7719402667367</v>
+        <v>566.7777687769249</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.8961621079645</v>
+        <v>512.6852940024489</v>
       </c>
       <c r="AD2" t="n">
-        <v>320682.4972616853</v>
+        <v>414237.3146589505</v>
       </c>
       <c r="AE2" t="n">
-        <v>438771.9402667367</v>
+        <v>566777.7687769248</v>
       </c>
       <c r="AF2" t="n">
         <v>1.213096088619277e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.75911458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>396896.1621079645</v>
+        <v>512685.294002449</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.7269287422538</v>
+        <v>338.8920989810148</v>
       </c>
       <c r="AB3" t="n">
-        <v>348.5286216639628</v>
+        <v>463.6871206900536</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.265539175451</v>
+        <v>419.4334726803553</v>
       </c>
       <c r="AD3" t="n">
-        <v>254726.9287422538</v>
+        <v>338892.0989810149</v>
       </c>
       <c r="AE3" t="n">
-        <v>348528.6216639628</v>
+        <v>463687.1206900536</v>
       </c>
       <c r="AF3" t="n">
         <v>1.437394418468392e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.67317708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>315265.539175451</v>
+        <v>419433.4726803553</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.3391400451536</v>
+        <v>318.4701448651335</v>
       </c>
       <c r="AB4" t="n">
-        <v>320.6331497228467</v>
+        <v>435.7449021156752</v>
       </c>
       <c r="AC4" t="n">
-        <v>290.0323719248454</v>
+        <v>394.1580202295656</v>
       </c>
       <c r="AD4" t="n">
-        <v>234339.1400451536</v>
+        <v>318470.1448651335</v>
       </c>
       <c r="AE4" t="n">
-        <v>320633.1497228467</v>
+        <v>435744.9021156752</v>
       </c>
       <c r="AF4" t="n">
         <v>1.511510068170668e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>290032.3719248454</v>
+        <v>394158.0202295656</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.5858083504432</v>
+        <v>302.328177041773</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.3929433621816</v>
+        <v>413.6587496063928</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.6740378905281</v>
+        <v>374.1797391176593</v>
       </c>
       <c r="AD5" t="n">
-        <v>227585.8083504432</v>
+        <v>302328.177041773</v>
       </c>
       <c r="AE5" t="n">
-        <v>311392.9433621816</v>
+        <v>413658.7496063928</v>
       </c>
       <c r="AF5" t="n">
         <v>1.550353590493521e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.46223958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>281674.0378905281</v>
+        <v>374179.7391176593</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>227.5690900906008</v>
+        <v>302.3114587819305</v>
       </c>
       <c r="AB6" t="n">
-        <v>311.3700687015076</v>
+        <v>413.6358749457188</v>
       </c>
       <c r="AC6" t="n">
-        <v>281.653346355364</v>
+        <v>374.1590475824952</v>
       </c>
       <c r="AD6" t="n">
-        <v>227569.0900906008</v>
+        <v>302311.4587819305</v>
       </c>
       <c r="AE6" t="n">
-        <v>311370.0687015076</v>
+        <v>413635.8749457188</v>
       </c>
       <c r="AF6" t="n">
         <v>1.552120878712949e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>281653.346355364</v>
+        <v>374159.0475824953</v>
       </c>
     </row>
   </sheetData>
@@ -10833,28 +10833,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.0037013670432</v>
+        <v>513.2446529726066</v>
       </c>
       <c r="AB2" t="n">
-        <v>559.6169081802143</v>
+        <v>702.2439769531649</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.2078558907575</v>
+        <v>635.222797398366</v>
       </c>
       <c r="AD2" t="n">
-        <v>409003.7013670432</v>
+        <v>513244.6529726066</v>
       </c>
       <c r="AE2" t="n">
-        <v>559616.9081802143</v>
+        <v>702243.9769531649</v>
       </c>
       <c r="AF2" t="n">
         <v>9.382420222218133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.12239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>506207.8558907575</v>
+        <v>635222.7973983659</v>
       </c>
     </row>
     <row r="3">
@@ -10939,28 +10939,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.4160619217152</v>
+        <v>382.7591930780252</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.9377769919051</v>
+        <v>523.7080141131895</v>
       </c>
       <c r="AC3" t="n">
-        <v>368.100206696554</v>
+        <v>473.7260562750402</v>
       </c>
       <c r="AD3" t="n">
-        <v>297416.0619217152</v>
+        <v>382759.1930780252</v>
       </c>
       <c r="AE3" t="n">
-        <v>406937.7769919051</v>
+        <v>523708.0141131895</v>
       </c>
       <c r="AF3" t="n">
         <v>1.174285170815169e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.67578125</v>
       </c>
       <c r="AH3" t="n">
-        <v>368100.206696554</v>
+        <v>473726.0562750401</v>
       </c>
     </row>
     <row r="4">
@@ -11045,28 +11045,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.8150508560763</v>
+        <v>347.6082920762029</v>
       </c>
       <c r="AB4" t="n">
-        <v>371.9093442150014</v>
+        <v>475.6130006141904</v>
       </c>
       <c r="AC4" t="n">
-        <v>336.4148383811639</v>
+        <v>430.2211633626101</v>
       </c>
       <c r="AD4" t="n">
-        <v>271815.0508560763</v>
+        <v>347608.2920762029</v>
       </c>
       <c r="AE4" t="n">
-        <v>371909.3442150014</v>
+        <v>475613.0006141904</v>
       </c>
       <c r="AF4" t="n">
         <v>1.258142185647065e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.49739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>336414.8383811639</v>
+        <v>430221.1633626102</v>
       </c>
     </row>
     <row r="5">
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>254.2402246865212</v>
+        <v>339.5150250052727</v>
       </c>
       <c r="AB5" t="n">
-        <v>347.8626917030423</v>
+        <v>464.5394355579998</v>
       </c>
       <c r="AC5" t="n">
-        <v>314.663164635362</v>
+        <v>420.2044438135362</v>
       </c>
       <c r="AD5" t="n">
-        <v>254240.2246865212</v>
+        <v>339515.0250052727</v>
       </c>
       <c r="AE5" t="n">
-        <v>347862.6917030424</v>
+        <v>464539.4355579998</v>
       </c>
       <c r="AF5" t="n">
         <v>1.298380798847769e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>314663.164635362</v>
+        <v>420204.4438135362</v>
       </c>
     </row>
     <row r="6">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>247.854599468564</v>
+        <v>323.7151604963982</v>
       </c>
       <c r="AB6" t="n">
-        <v>339.1255975659355</v>
+        <v>442.9213638961302</v>
       </c>
       <c r="AC6" t="n">
-        <v>306.7599265001092</v>
+        <v>400.6495705699214</v>
       </c>
       <c r="AD6" t="n">
-        <v>247854.599468564</v>
+        <v>323715.1604963982</v>
       </c>
       <c r="AE6" t="n">
-        <v>339125.5975659355</v>
+        <v>442921.3638961302</v>
       </c>
       <c r="AF6" t="n">
         <v>1.327969890012788e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.63151041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>306759.9265001092</v>
+        <v>400649.5705699214</v>
       </c>
     </row>
     <row r="7">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>243.7450158934861</v>
+        <v>319.504091694835</v>
       </c>
       <c r="AB7" t="n">
-        <v>333.502684016485</v>
+        <v>437.1595937825875</v>
       </c>
       <c r="AC7" t="n">
-        <v>301.6736559280078</v>
+        <v>395.43769570932</v>
       </c>
       <c r="AD7" t="n">
-        <v>243745.0158934861</v>
+        <v>319504.091694835</v>
       </c>
       <c r="AE7" t="n">
-        <v>333502.6840164851</v>
+        <v>437159.5937825876</v>
       </c>
       <c r="AF7" t="n">
         <v>1.344007942659345e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>301673.6559280078</v>
+        <v>395437.69570932</v>
       </c>
     </row>
     <row r="8">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>241.028036993647</v>
+        <v>316.7871127949958</v>
       </c>
       <c r="AB8" t="n">
-        <v>329.7851936210776</v>
+        <v>433.4421033871783</v>
       </c>
       <c r="AC8" t="n">
-        <v>298.3109575984063</v>
+        <v>392.0749973797181</v>
       </c>
       <c r="AD8" t="n">
-        <v>241028.036993647</v>
+        <v>316787.1127949958</v>
       </c>
       <c r="AE8" t="n">
-        <v>329785.1936210776</v>
+        <v>433442.1033871783</v>
       </c>
       <c r="AF8" t="n">
         <v>1.353700920799609e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.33203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>298310.9575984063</v>
+        <v>392074.9973797181</v>
       </c>
     </row>
     <row r="9">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>241.3038753432087</v>
+        <v>317.0629511445576</v>
       </c>
       <c r="AB9" t="n">
-        <v>330.1626078200769</v>
+        <v>433.8195175861778</v>
       </c>
       <c r="AC9" t="n">
-        <v>298.6523519159574</v>
+        <v>392.4163916972691</v>
       </c>
       <c r="AD9" t="n">
-        <v>241303.8753432087</v>
+        <v>317062.9511445576</v>
       </c>
       <c r="AE9" t="n">
-        <v>330162.6078200769</v>
+        <v>433819.5175861777</v>
       </c>
       <c r="AF9" t="n">
         <v>1.353796575189151e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.33203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>298652.3519159574</v>
+        <v>392416.3916972692</v>
       </c>
     </row>
   </sheetData>
@@ -11872,28 +11872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.9976203922114</v>
+        <v>357.1914893051016</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.8956321425138</v>
+        <v>488.7251538435929</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.1161191801559</v>
+        <v>442.0819110908211</v>
       </c>
       <c r="AD2" t="n">
-        <v>273997.6203922114</v>
+        <v>357191.4893051016</v>
       </c>
       <c r="AE2" t="n">
-        <v>374895.6321425138</v>
+        <v>488725.1538435929</v>
       </c>
       <c r="AF2" t="n">
         <v>1.505236495214735e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>339116.1191801559</v>
+        <v>442081.9110908211</v>
       </c>
     </row>
     <row r="3">
@@ -11978,28 +11978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.6707471194661</v>
+        <v>304.613372841182</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.6138926838498</v>
+        <v>416.7854553148676</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.4921457330773</v>
+        <v>377.0080364216764</v>
       </c>
       <c r="AD3" t="n">
-        <v>230670.7471194661</v>
+        <v>304613.372841182</v>
       </c>
       <c r="AE3" t="n">
-        <v>315613.8926838498</v>
+        <v>416785.4553148676</v>
       </c>
       <c r="AF3" t="n">
         <v>1.71566766322957e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.00260416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>285492.1457330773</v>
+        <v>377008.0364216764</v>
       </c>
     </row>
     <row r="4">
@@ -12084,28 +12084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.4253639716102</v>
+        <v>290.4353095010303</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.1227309990133</v>
+        <v>397.3864035608625</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.861193163418</v>
+        <v>359.4604029403334</v>
       </c>
       <c r="AD4" t="n">
-        <v>216425.3639716102</v>
+        <v>290435.3095010303</v>
       </c>
       <c r="AE4" t="n">
-        <v>296122.7309990133</v>
+        <v>397386.4035608625</v>
       </c>
       <c r="AF4" t="n">
         <v>1.758639478902339e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.61197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>267861.193163418</v>
+        <v>359460.4029403334</v>
       </c>
     </row>
   </sheetData>
@@ -12381,28 +12381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>670.9497952413384</v>
+        <v>816.4822404972547</v>
       </c>
       <c r="AB2" t="n">
-        <v>918.0231100650875</v>
+        <v>1117.147022102585</v>
       </c>
       <c r="AC2" t="n">
-        <v>830.408272894002</v>
+        <v>1010.528078238806</v>
       </c>
       <c r="AD2" t="n">
-        <v>670949.7952413384</v>
+        <v>816482.2404972547</v>
       </c>
       <c r="AE2" t="n">
-        <v>918023.1100650876</v>
+        <v>1117147.022102585</v>
       </c>
       <c r="AF2" t="n">
         <v>5.761126535008661e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.08854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>830408.272894002</v>
+        <v>1010528.078238806</v>
       </c>
     </row>
     <row r="3">
@@ -12487,28 +12487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>405.4112595216541</v>
+        <v>502.4332267022174</v>
       </c>
       <c r="AB3" t="n">
-        <v>554.7015707600041</v>
+        <v>687.4513065635539</v>
       </c>
       <c r="AC3" t="n">
-        <v>501.7616313752128</v>
+        <v>621.841918709096</v>
       </c>
       <c r="AD3" t="n">
-        <v>405411.2595216541</v>
+        <v>502433.2267022174</v>
       </c>
       <c r="AE3" t="n">
-        <v>554701.5707600041</v>
+        <v>687451.3065635539</v>
       </c>
       <c r="AF3" t="n">
         <v>8.314648505755541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.15625</v>
       </c>
       <c r="AH3" t="n">
-        <v>501761.6313752128</v>
+        <v>621841.918709096</v>
       </c>
     </row>
     <row r="4">
@@ -12593,28 +12593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>351.9118109710722</v>
+        <v>439.2248494528086</v>
       </c>
       <c r="AB4" t="n">
-        <v>481.5012650240046</v>
+        <v>600.9668162541152</v>
       </c>
       <c r="AC4" t="n">
-        <v>435.5474600813827</v>
+        <v>543.6113867730456</v>
       </c>
       <c r="AD4" t="n">
-        <v>351911.8109710722</v>
+        <v>439224.8494528086</v>
       </c>
       <c r="AE4" t="n">
-        <v>481501.2650240046</v>
+        <v>600966.8162541152</v>
       </c>
       <c r="AF4" t="n">
         <v>9.256517143957437e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.10546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>435547.4600813827</v>
+        <v>543611.3867730456</v>
       </c>
     </row>
     <row r="5">
@@ -12699,28 +12699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>327.3307219148364</v>
+        <v>414.6095949777921</v>
       </c>
       <c r="AB5" t="n">
-        <v>447.8683345361497</v>
+        <v>567.2871391330124</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.1244092751742</v>
+        <v>513.1460507666574</v>
       </c>
       <c r="AD5" t="n">
-        <v>327330.7219148364</v>
+        <v>414609.5949777921</v>
       </c>
       <c r="AE5" t="n">
-        <v>447868.3345361497</v>
+        <v>567287.1391330124</v>
       </c>
       <c r="AF5" t="n">
         <v>9.761301073860123e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.16796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>405124.4092751742</v>
+        <v>513146.0507666573</v>
       </c>
     </row>
     <row r="6">
@@ -12805,28 +12805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.8512795619251</v>
+        <v>396.1974724325852</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.5839462534378</v>
+        <v>542.0948607811421</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.2531275233025</v>
+        <v>490.3580881031046</v>
       </c>
       <c r="AD6" t="n">
-        <v>308851.2795619252</v>
+        <v>396197.4724325853</v>
       </c>
       <c r="AE6" t="n">
-        <v>422583.9462534378</v>
+        <v>542094.860781142</v>
       </c>
       <c r="AF6" t="n">
         <v>1.006607627682023e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.64713541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>382253.1275233025</v>
+        <v>490358.0881031046</v>
       </c>
     </row>
     <row r="7">
@@ -12911,28 +12911,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>303.3316420125953</v>
+        <v>380.935751795505</v>
       </c>
       <c r="AB7" t="n">
-        <v>415.0317346492221</v>
+        <v>521.2131013058935</v>
       </c>
       <c r="AC7" t="n">
-        <v>375.4216883949976</v>
+        <v>471.4692544444404</v>
       </c>
       <c r="AD7" t="n">
-        <v>303331.6420125953</v>
+        <v>380935.7517955051</v>
       </c>
       <c r="AE7" t="n">
-        <v>415031.7346492221</v>
+        <v>521213.1013058934</v>
       </c>
       <c r="AF7" t="n">
         <v>1.025964971653814e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.33463541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>375421.6883949976</v>
+        <v>471469.2544444404</v>
       </c>
     </row>
     <row r="8">
@@ -13017,28 +13017,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>298.9583614846813</v>
+        <v>376.5624712675911</v>
       </c>
       <c r="AB8" t="n">
-        <v>409.04801929541</v>
+        <v>515.2293859520813</v>
       </c>
       <c r="AC8" t="n">
-        <v>370.0090504363561</v>
+        <v>466.0566164857988</v>
       </c>
       <c r="AD8" t="n">
-        <v>298958.3614846814</v>
+        <v>376562.4712675911</v>
       </c>
       <c r="AE8" t="n">
-        <v>409048.01929541</v>
+        <v>515229.3859520814</v>
       </c>
       <c r="AF8" t="n">
         <v>1.04081761456834e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.10026041666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>370009.0504363561</v>
+        <v>466056.6164857988</v>
       </c>
     </row>
     <row r="9">
@@ -13123,28 +13123,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>285.4725751667031</v>
+        <v>372.7846026185824</v>
       </c>
       <c r="AB9" t="n">
-        <v>390.5961715042494</v>
+        <v>510.0603393987058</v>
       </c>
       <c r="AC9" t="n">
-        <v>353.3182211010528</v>
+        <v>461.3808964806749</v>
       </c>
       <c r="AD9" t="n">
-        <v>285472.5751667031</v>
+        <v>372784.6026185824</v>
       </c>
       <c r="AE9" t="n">
-        <v>390596.1715042493</v>
+        <v>510060.3393987057</v>
       </c>
       <c r="AF9" t="n">
         <v>1.053096142593e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.91145833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>353318.2211010528</v>
+        <v>461380.896480675</v>
       </c>
     </row>
     <row r="10">
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>282.9981262109843</v>
+        <v>360.6695558015984</v>
       </c>
       <c r="AB10" t="n">
-        <v>387.2105212780514</v>
+        <v>493.4839978655643</v>
       </c>
       <c r="AC10" t="n">
-        <v>350.2556925806533</v>
+        <v>446.3865777184151</v>
       </c>
       <c r="AD10" t="n">
-        <v>282998.1262109843</v>
+        <v>360669.5558015985</v>
       </c>
       <c r="AE10" t="n">
-        <v>387210.5212780514</v>
+        <v>493483.9978655643</v>
       </c>
       <c r="AF10" t="n">
         <v>1.05960865326436e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.81380208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>350255.6925806533</v>
+        <v>446386.5777184151</v>
       </c>
     </row>
     <row r="11">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>279.867349915108</v>
+        <v>357.5387795057222</v>
       </c>
       <c r="AB11" t="n">
-        <v>382.9268550299314</v>
+        <v>489.2003316174443</v>
       </c>
       <c r="AC11" t="n">
-        <v>346.3808534270905</v>
+        <v>442.5117385648523</v>
       </c>
       <c r="AD11" t="n">
-        <v>279867.3499151081</v>
+        <v>357538.7795057222</v>
       </c>
       <c r="AE11" t="n">
-        <v>382926.8550299314</v>
+        <v>489200.3316174443</v>
       </c>
       <c r="AF11" t="n">
         <v>1.069158619505763e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>346380.8534270904</v>
+        <v>442511.7385648523</v>
       </c>
     </row>
     <row r="12">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>277.1648724653151</v>
+        <v>354.8363020559293</v>
       </c>
       <c r="AB12" t="n">
-        <v>379.229206158234</v>
+        <v>485.5026827457469</v>
       </c>
       <c r="AC12" t="n">
-        <v>343.0361029740252</v>
+        <v>439.166988111787</v>
       </c>
       <c r="AD12" t="n">
-        <v>277164.8724653151</v>
+        <v>354836.3020559293</v>
       </c>
       <c r="AE12" t="n">
-        <v>379229.206158234</v>
+        <v>485502.6827457469</v>
       </c>
       <c r="AF12" t="n">
         <v>1.075387977539238e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.5859375</v>
       </c>
       <c r="AH12" t="n">
-        <v>343036.1029740252</v>
+        <v>439166.988111787</v>
       </c>
     </row>
     <row r="13">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>275.8416613317644</v>
+        <v>353.5130909223785</v>
       </c>
       <c r="AB13" t="n">
-        <v>377.4187303093547</v>
+        <v>483.6922068968676</v>
       </c>
       <c r="AC13" t="n">
-        <v>341.398416399144</v>
+        <v>437.5293015369058</v>
       </c>
       <c r="AD13" t="n">
-        <v>275841.6613317644</v>
+        <v>353513.0909223785</v>
       </c>
       <c r="AE13" t="n">
-        <v>377418.7303093547</v>
+        <v>483692.2068968676</v>
       </c>
       <c r="AF13" t="n">
         <v>1.078657103449367e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.53385416666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>341398.416399144</v>
+        <v>437529.3015369059</v>
       </c>
     </row>
     <row r="14">
@@ -13653,28 +13653,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>272.8380918824622</v>
+        <v>350.4080362465911</v>
       </c>
       <c r="AB14" t="n">
-        <v>373.3091140806873</v>
+        <v>479.4437341041108</v>
       </c>
       <c r="AC14" t="n">
-        <v>337.681016175458</v>
+        <v>433.6862970247208</v>
       </c>
       <c r="AD14" t="n">
-        <v>272838.0918824621</v>
+        <v>350408.0362465911</v>
       </c>
       <c r="AE14" t="n">
-        <v>373309.1140806873</v>
+        <v>479443.7341041109</v>
       </c>
       <c r="AF14" t="n">
         <v>1.082415311188572e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.48177083333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>337681.016175458</v>
+        <v>433686.2970247208</v>
       </c>
     </row>
     <row r="15">
@@ -13759,28 +13759,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>270.7632040868844</v>
+        <v>348.3331484510133</v>
       </c>
       <c r="AB15" t="n">
-        <v>370.4701610611887</v>
+        <v>476.6047810846122</v>
       </c>
       <c r="AC15" t="n">
-        <v>335.1130088476447</v>
+        <v>431.1182896969075</v>
       </c>
       <c r="AD15" t="n">
-        <v>270763.2040868844</v>
+        <v>348333.1484510133</v>
       </c>
       <c r="AE15" t="n">
-        <v>370470.1610611887</v>
+        <v>476604.7810846122</v>
       </c>
       <c r="AF15" t="n">
         <v>1.088232810839668e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.39713541666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>335113.0088476447</v>
+        <v>431118.2896969075</v>
       </c>
     </row>
     <row r="16">
@@ -13865,28 +13865,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>270.2219764070363</v>
+        <v>347.7919207711652</v>
       </c>
       <c r="AB16" t="n">
-        <v>369.7296294723403</v>
+        <v>475.8642494957641</v>
       </c>
       <c r="AC16" t="n">
-        <v>334.4431525542935</v>
+        <v>430.4484334035564</v>
       </c>
       <c r="AD16" t="n">
-        <v>270221.9764070363</v>
+        <v>347791.9207711652</v>
       </c>
       <c r="AE16" t="n">
-        <v>369729.6294723403</v>
+        <v>475864.249495764</v>
       </c>
       <c r="AF16" t="n">
         <v>1.087306129479316e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.41015625</v>
       </c>
       <c r="AH16" t="n">
-        <v>334443.1525542935</v>
+        <v>430448.4334035564</v>
       </c>
     </row>
     <row r="17">
@@ -13971,28 +13971,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>268.8439114050271</v>
+        <v>346.413855769156</v>
       </c>
       <c r="AB17" t="n">
-        <v>367.8441001406542</v>
+        <v>473.9787201640779</v>
       </c>
       <c r="AC17" t="n">
-        <v>332.7375754956665</v>
+        <v>428.7428563449293</v>
       </c>
       <c r="AD17" t="n">
-        <v>268843.9114050271</v>
+        <v>346413.855769156</v>
       </c>
       <c r="AE17" t="n">
-        <v>367844.1001406542</v>
+        <v>473978.7201640779</v>
       </c>
       <c r="AF17" t="n">
         <v>1.090781184580635e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>332737.5754956665</v>
+        <v>428742.8563449293</v>
       </c>
     </row>
     <row r="18">
@@ -14077,28 +14077,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>269.2174820325134</v>
+        <v>346.7874263966423</v>
       </c>
       <c r="AB18" t="n">
-        <v>368.3552359539539</v>
+        <v>474.4898559773776</v>
       </c>
       <c r="AC18" t="n">
-        <v>333.1999292243285</v>
+        <v>429.2052100735913</v>
       </c>
       <c r="AD18" t="n">
-        <v>269217.4820325134</v>
+        <v>346787.4263966423</v>
       </c>
       <c r="AE18" t="n">
-        <v>368355.2359539539</v>
+        <v>474489.8559773776</v>
       </c>
       <c r="AF18" t="n">
         <v>1.091115819516318e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.35807291666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>333199.9292243285</v>
+        <v>429205.2100735913</v>
       </c>
     </row>
   </sheetData>
@@ -14374,28 +14374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.2243786677357</v>
+        <v>327.8285587094099</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.5268134290917</v>
+        <v>448.5494968014945</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.5046052703594</v>
+        <v>405.7405623699319</v>
       </c>
       <c r="AD2" t="n">
-        <v>245224.3786677357</v>
+        <v>327828.55870941</v>
       </c>
       <c r="AE2" t="n">
-        <v>335526.8134290917</v>
+        <v>448549.4968014945</v>
       </c>
       <c r="AF2" t="n">
         <v>1.725494013451395e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.40885416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>303504.6052703594</v>
+        <v>405740.5623699318</v>
       </c>
     </row>
     <row r="3">
@@ -14480,28 +14480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.5787517244992</v>
+        <v>293.2160861550967</v>
       </c>
       <c r="AB3" t="n">
-        <v>288.1231381881917</v>
+        <v>401.1911848581639</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.6250702629597</v>
+        <v>362.9020612506643</v>
       </c>
       <c r="AD3" t="n">
-        <v>210578.7517244992</v>
+        <v>293216.0861550967</v>
       </c>
       <c r="AE3" t="n">
-        <v>288123.1381881917</v>
+        <v>401191.1848581639</v>
       </c>
       <c r="AF3" t="n">
         <v>1.894836519919281e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.85286458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>260625.0702629597</v>
+        <v>362902.0612506643</v>
       </c>
     </row>
     <row r="4">
@@ -14586,28 +14586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>211.1271118952526</v>
+        <v>293.76444632585</v>
       </c>
       <c r="AB4" t="n">
-        <v>288.8734287657595</v>
+        <v>401.9414754357321</v>
       </c>
       <c r="AC4" t="n">
-        <v>261.3037541608441</v>
+        <v>363.5807451485487</v>
       </c>
       <c r="AD4" t="n">
-        <v>211127.1118952526</v>
+        <v>293764.44632585</v>
       </c>
       <c r="AE4" t="n">
-        <v>288873.4287657595</v>
+        <v>401941.475435732</v>
       </c>
       <c r="AF4" t="n">
         <v>1.893729102983252e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.86588541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>261303.7541608441</v>
+        <v>363580.7451485487</v>
       </c>
     </row>
   </sheetData>
@@ -14883,28 +14883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>499.7907216572004</v>
+        <v>624.4063254251292</v>
       </c>
       <c r="AB2" t="n">
-        <v>683.8357145818668</v>
+        <v>854.3402813095804</v>
       </c>
       <c r="AC2" t="n">
-        <v>618.571393751626</v>
+        <v>772.8032439355089</v>
       </c>
       <c r="AD2" t="n">
-        <v>499790.7216572004</v>
+        <v>624406.3254251293</v>
       </c>
       <c r="AE2" t="n">
-        <v>683835.7145818667</v>
+        <v>854340.2813095804</v>
       </c>
       <c r="AF2" t="n">
         <v>7.519787020482259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.83072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>618571.393751626</v>
+        <v>772803.2439355089</v>
       </c>
     </row>
     <row r="3">
@@ -14989,28 +14989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>339.404975703577</v>
+        <v>435.2552481207267</v>
       </c>
       <c r="AB3" t="n">
-        <v>464.3888612483871</v>
+        <v>595.5354325851096</v>
       </c>
       <c r="AC3" t="n">
-        <v>420.0682401047006</v>
+        <v>538.6983667384151</v>
       </c>
       <c r="AD3" t="n">
-        <v>339404.9757035769</v>
+        <v>435255.2481207267</v>
       </c>
       <c r="AE3" t="n">
-        <v>464388.8612483871</v>
+        <v>595535.4325851096</v>
       </c>
       <c r="AF3" t="n">
         <v>9.999133971126827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>420068.2401047006</v>
+        <v>538698.3667384151</v>
       </c>
     </row>
     <row r="4">
@@ -15095,28 +15095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>307.6279843489104</v>
+        <v>393.8224931747626</v>
       </c>
       <c r="AB4" t="n">
-        <v>420.9101797750151</v>
+        <v>538.845309383899</v>
       </c>
       <c r="AC4" t="n">
-        <v>380.7391029684345</v>
+        <v>487.4186693304406</v>
       </c>
       <c r="AD4" t="n">
-        <v>307627.9843489105</v>
+        <v>393822.4931747626</v>
       </c>
       <c r="AE4" t="n">
-        <v>420910.1797750151</v>
+        <v>538845.309383899</v>
       </c>
       <c r="AF4" t="n">
         <v>1.087023261632668e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.18098958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>380739.1029684345</v>
+        <v>487418.6693304406</v>
       </c>
     </row>
     <row r="5">
@@ -15201,28 +15201,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>287.4936174624219</v>
+        <v>364.1338479234619</v>
       </c>
       <c r="AB5" t="n">
-        <v>393.361450735345</v>
+        <v>498.2239951804798</v>
       </c>
       <c r="AC5" t="n">
-        <v>355.8195859634265</v>
+        <v>450.674196342223</v>
       </c>
       <c r="AD5" t="n">
-        <v>287493.6174624219</v>
+        <v>364133.8479234619</v>
       </c>
       <c r="AE5" t="n">
-        <v>393361.450735345</v>
+        <v>498223.9951804798</v>
       </c>
       <c r="AF5" t="n">
         <v>1.132313507295183e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.49088541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>355819.5859634265</v>
+        <v>450674.196342223</v>
       </c>
     </row>
     <row r="6">
@@ -15307,28 +15307,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>280.5060575162296</v>
+        <v>357.1462879772696</v>
       </c>
       <c r="AB6" t="n">
-        <v>383.8007629475765</v>
+        <v>488.6633073927113</v>
       </c>
       <c r="AC6" t="n">
-        <v>347.171356799613</v>
+        <v>442.0259671784095</v>
       </c>
       <c r="AD6" t="n">
-        <v>280506.0575162296</v>
+        <v>357146.2879772696</v>
       </c>
       <c r="AE6" t="n">
-        <v>383800.7629475765</v>
+        <v>488663.3073927113</v>
       </c>
       <c r="AF6" t="n">
         <v>1.161942908035764e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>347171.356799613</v>
+        <v>442025.9671784095</v>
       </c>
     </row>
     <row r="7">
@@ -15413,28 +15413,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>265.965897074981</v>
+        <v>342.6734473437253</v>
       </c>
       <c r="AB7" t="n">
-        <v>363.9062739652539</v>
+        <v>468.8609283412302</v>
       </c>
       <c r="AC7" t="n">
-        <v>329.1755699236727</v>
+        <v>424.1134993907883</v>
       </c>
       <c r="AD7" t="n">
-        <v>265965.897074981</v>
+        <v>342673.4473437254</v>
       </c>
       <c r="AE7" t="n">
-        <v>363906.273965254</v>
+        <v>468860.9283412303</v>
       </c>
       <c r="AF7" t="n">
         <v>1.180787551101168e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.81380208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>329175.5699236727</v>
+        <v>424113.4993907883</v>
       </c>
     </row>
     <row r="8">
@@ -15519,28 +15519,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>262.3470299866689</v>
+        <v>339.0545802554133</v>
       </c>
       <c r="AB8" t="n">
-        <v>358.9547803618772</v>
+        <v>463.9094347378534</v>
       </c>
       <c r="AC8" t="n">
-        <v>324.6966399203372</v>
+        <v>419.6345693874528</v>
       </c>
       <c r="AD8" t="n">
-        <v>262347.0299866688</v>
+        <v>339054.5802554133</v>
       </c>
       <c r="AE8" t="n">
-        <v>358954.7803618772</v>
+        <v>463909.4347378534</v>
       </c>
       <c r="AF8" t="n">
         <v>1.193952986667409e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.63802083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>324696.6399203372</v>
+        <v>419634.5693874528</v>
       </c>
     </row>
     <row r="9">
@@ -15625,28 +15625,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>259.0797853782414</v>
+        <v>335.7873356469858</v>
       </c>
       <c r="AB9" t="n">
-        <v>354.4843921479675</v>
+        <v>459.4390465239437</v>
       </c>
       <c r="AC9" t="n">
-        <v>320.6528992833338</v>
+        <v>415.5908287504494</v>
       </c>
       <c r="AD9" t="n">
-        <v>259079.7853782413</v>
+        <v>335787.3356469857</v>
       </c>
       <c r="AE9" t="n">
-        <v>354484.3921479675</v>
+        <v>459439.0465239437</v>
       </c>
       <c r="AF9" t="n">
         <v>1.203676478294763e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.51432291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>320652.8992833338</v>
+        <v>415590.8287504494</v>
       </c>
     </row>
     <row r="10">
@@ -15731,28 +15731,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>255.7187248463422</v>
+        <v>332.3247898886045</v>
       </c>
       <c r="AB10" t="n">
-        <v>349.885640848532</v>
+        <v>454.7014386605887</v>
       </c>
       <c r="AC10" t="n">
-        <v>316.4930463536336</v>
+        <v>411.3053715322986</v>
       </c>
       <c r="AD10" t="n">
-        <v>255718.7248463422</v>
+        <v>332324.7898886045</v>
       </c>
       <c r="AE10" t="n">
-        <v>349885.640848532</v>
+        <v>454701.4386605887</v>
       </c>
       <c r="AF10" t="n">
         <v>1.212625532535868e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.39713541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>316493.0463536336</v>
+        <v>411305.3715322986</v>
       </c>
     </row>
     <row r="11">
@@ -15837,28 +15837,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>254.3275916903337</v>
+        <v>330.933656732596</v>
       </c>
       <c r="AB11" t="n">
-        <v>347.9822310920188</v>
+        <v>452.7980289040744</v>
       </c>
       <c r="AC11" t="n">
-        <v>314.7712953528291</v>
+        <v>409.5836205314937</v>
       </c>
       <c r="AD11" t="n">
-        <v>254327.5916903337</v>
+        <v>330933.656732596</v>
       </c>
       <c r="AE11" t="n">
-        <v>347982.2310920188</v>
+        <v>452798.0289040745</v>
       </c>
       <c r="AF11" t="n">
         <v>1.216067476474754e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.35807291666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>314771.2953528291</v>
+        <v>409583.6205314937</v>
       </c>
     </row>
     <row r="12">
@@ -15943,28 +15943,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>253.258839517475</v>
+        <v>329.8649045597373</v>
       </c>
       <c r="AB12" t="n">
-        <v>346.519917219096</v>
+        <v>451.335715031151</v>
       </c>
       <c r="AC12" t="n">
-        <v>313.4485426635673</v>
+        <v>408.2608678422316</v>
       </c>
       <c r="AD12" t="n">
-        <v>253258.839517475</v>
+        <v>329864.9045597373</v>
       </c>
       <c r="AE12" t="n">
-        <v>346519.917219096</v>
+        <v>451335.715031151</v>
       </c>
       <c r="AF12" t="n">
         <v>1.219337323216696e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH12" t="n">
-        <v>313448.5426635672</v>
+        <v>408260.8678422316</v>
       </c>
     </row>
   </sheetData>
@@ -16240,28 +16240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>575.1375468787462</v>
+        <v>710.2186475279847</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.9285649173137</v>
+        <v>971.7524861831719</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.8252071427819</v>
+        <v>879.0097927650295</v>
       </c>
       <c r="AD2" t="n">
-        <v>575137.5468787462</v>
+        <v>710218.6475279847</v>
       </c>
       <c r="AE2" t="n">
-        <v>786928.5649173136</v>
+        <v>971752.4861831719</v>
       </c>
       <c r="AF2" t="n">
         <v>6.569530973031966e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.82942708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>711825.2071427819</v>
+        <v>879009.7927650295</v>
       </c>
     </row>
     <row r="3">
@@ -16346,28 +16346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>371.7737061327012</v>
+        <v>468.1831252405154</v>
       </c>
       <c r="AB3" t="n">
-        <v>508.6771862291178</v>
+        <v>640.5888067358184</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.1297495083248</v>
+        <v>579.4519100929882</v>
       </c>
       <c r="AD3" t="n">
-        <v>371773.7061327012</v>
+        <v>468183.1252405155</v>
       </c>
       <c r="AE3" t="n">
-        <v>508677.1862291177</v>
+        <v>640588.8067358184</v>
       </c>
       <c r="AF3" t="n">
         <v>9.087693247096269e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.39453125</v>
       </c>
       <c r="AH3" t="n">
-        <v>460129.7495083248</v>
+        <v>579451.9100929882</v>
       </c>
     </row>
     <row r="4">
@@ -16452,28 +16452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>324.7725278349546</v>
+        <v>411.6323417358242</v>
       </c>
       <c r="AB4" t="n">
-        <v>444.368100536498</v>
+        <v>563.2135299002091</v>
       </c>
       <c r="AC4" t="n">
-        <v>401.95823269584</v>
+        <v>509.4612210816861</v>
       </c>
       <c r="AD4" t="n">
-        <v>324772.5278349547</v>
+        <v>411632.3417358242</v>
       </c>
       <c r="AE4" t="n">
-        <v>444368.100536498</v>
+        <v>563213.529900209</v>
       </c>
       <c r="AF4" t="n">
         <v>9.997653832316152e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.63020833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>401958.23269584</v>
+        <v>509461.2210816861</v>
       </c>
     </row>
     <row r="5">
@@ -16558,28 +16558,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>302.3802654254949</v>
+        <v>389.2059139075837</v>
       </c>
       <c r="AB5" t="n">
-        <v>413.7300192309784</v>
+        <v>532.5287019614417</v>
       </c>
       <c r="AC5" t="n">
-        <v>374.2442068693021</v>
+        <v>481.7049100549683</v>
       </c>
       <c r="AD5" t="n">
-        <v>302380.2654254949</v>
+        <v>389205.9139075837</v>
       </c>
       <c r="AE5" t="n">
-        <v>413730.0192309784</v>
+        <v>532528.7019614417</v>
       </c>
       <c r="AF5" t="n">
         <v>1.047957285691936e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.82291666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>374244.2068693021</v>
+        <v>481704.9100549683</v>
       </c>
     </row>
     <row r="6">
@@ -16664,28 +16664,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>295.2744993263784</v>
+        <v>372.4159029861135</v>
       </c>
       <c r="AB6" t="n">
-        <v>404.0075965698915</v>
+        <v>509.555868295682</v>
       </c>
       <c r="AC6" t="n">
-        <v>365.4496785814833</v>
+        <v>460.9245713916941</v>
       </c>
       <c r="AD6" t="n">
-        <v>295274.4993263783</v>
+        <v>372415.9029861134</v>
       </c>
       <c r="AE6" t="n">
-        <v>404007.5965698914</v>
+        <v>509555.868295682</v>
       </c>
       <c r="AF6" t="n">
         <v>1.075816537170403e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.38671875</v>
       </c>
       <c r="AH6" t="n">
-        <v>365449.6785814833</v>
+        <v>460924.5713916941</v>
       </c>
     </row>
     <row r="7">
@@ -16770,28 +16770,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>289.6473011418691</v>
+        <v>366.7887048016042</v>
       </c>
       <c r="AB7" t="n">
-        <v>396.308215759383</v>
+        <v>501.8564874851735</v>
       </c>
       <c r="AC7" t="n">
-        <v>358.4851158693809</v>
+        <v>453.9600086795917</v>
       </c>
       <c r="AD7" t="n">
-        <v>289647.3011418692</v>
+        <v>366788.7048016043</v>
       </c>
       <c r="AE7" t="n">
-        <v>396308.215759383</v>
+        <v>501856.4874851735</v>
       </c>
       <c r="AF7" t="n">
         <v>1.097069707637454e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.06770833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>358485.1158693809</v>
+        <v>453960.0086795917</v>
       </c>
     </row>
     <row r="8">
@@ -16876,28 +16876,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>276.6578673740516</v>
+        <v>363.4493504373594</v>
       </c>
       <c r="AB8" t="n">
-        <v>378.5354994248813</v>
+        <v>497.2874355220967</v>
       </c>
       <c r="AC8" t="n">
-        <v>342.40860263768</v>
+        <v>449.8270206231662</v>
       </c>
       <c r="AD8" t="n">
-        <v>276657.8673740516</v>
+        <v>363449.3504373594</v>
       </c>
       <c r="AE8" t="n">
-        <v>378535.4994248813</v>
+        <v>497287.4355220967</v>
       </c>
       <c r="AF8" t="n">
         <v>1.109253053765064e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.89192708333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>342408.60263768</v>
+        <v>449827.0206231662</v>
       </c>
     </row>
     <row r="9">
@@ -16982,28 +16982,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>272.8428102672787</v>
+        <v>350.0515337347182</v>
       </c>
       <c r="AB9" t="n">
-        <v>373.3155699829537</v>
+        <v>478.9559516395856</v>
       </c>
       <c r="AC9" t="n">
-        <v>337.686855935473</v>
+        <v>433.2450678340029</v>
       </c>
       <c r="AD9" t="n">
-        <v>272842.8102672786</v>
+        <v>350051.5337347182</v>
       </c>
       <c r="AE9" t="n">
-        <v>373315.5699829537</v>
+        <v>478955.9516395857</v>
       </c>
       <c r="AF9" t="n">
         <v>1.12100321425258e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.72265625</v>
       </c>
       <c r="AH9" t="n">
-        <v>337686.855935473</v>
+        <v>433245.0678340029</v>
       </c>
     </row>
     <row r="10">
@@ -17088,28 +17088,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>269.0273401231833</v>
+        <v>346.2360635906229</v>
       </c>
       <c r="AB10" t="n">
-        <v>368.0950754051396</v>
+        <v>473.7354570617716</v>
       </c>
       <c r="AC10" t="n">
-        <v>332.9645980331553</v>
+        <v>428.5228099316853</v>
       </c>
       <c r="AD10" t="n">
-        <v>269027.3401231833</v>
+        <v>346236.0635906229</v>
       </c>
       <c r="AE10" t="n">
-        <v>368095.0754051396</v>
+        <v>473735.4570617716</v>
       </c>
       <c r="AF10" t="n">
         <v>1.131074780384737e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.5859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>332964.5980331553</v>
+        <v>428522.8099316853</v>
       </c>
     </row>
     <row r="11">
@@ -17194,28 +17194,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>266.5876747328996</v>
+        <v>343.694912973854</v>
       </c>
       <c r="AB11" t="n">
-        <v>364.7570175877126</v>
+        <v>470.2585426802552</v>
       </c>
       <c r="AC11" t="n">
-        <v>329.94511976883</v>
+        <v>425.3777273788609</v>
       </c>
       <c r="AD11" t="n">
-        <v>266587.6747328996</v>
+        <v>343694.912973854</v>
       </c>
       <c r="AE11" t="n">
-        <v>364757.0175877126</v>
+        <v>470258.5426802553</v>
       </c>
       <c r="AF11" t="n">
         <v>1.138032824728727e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.48828125</v>
       </c>
       <c r="AH11" t="n">
-        <v>329945.11976883</v>
+        <v>425377.7273788609</v>
       </c>
     </row>
     <row r="12">
@@ -17300,28 +17300,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>264.5543092296718</v>
+        <v>341.6615474706262</v>
       </c>
       <c r="AB12" t="n">
-        <v>361.9748772004414</v>
+        <v>467.4764022929841</v>
       </c>
       <c r="AC12" t="n">
-        <v>327.4285029553614</v>
+        <v>422.8611105653923</v>
       </c>
       <c r="AD12" t="n">
-        <v>264554.3092296718</v>
+        <v>341661.5474706262</v>
       </c>
       <c r="AE12" t="n">
-        <v>361974.8772004414</v>
+        <v>467476.4022929841</v>
       </c>
       <c r="AF12" t="n">
         <v>1.141200494721906e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>327428.5029553614</v>
+        <v>422861.1105653923</v>
       </c>
     </row>
     <row r="13">
@@ -17406,28 +17406,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>261.6015980743245</v>
+        <v>338.7088363152789</v>
       </c>
       <c r="AB13" t="n">
-        <v>357.9348475332727</v>
+        <v>463.4363726258154</v>
       </c>
       <c r="AC13" t="n">
-        <v>323.77404804941</v>
+        <v>419.2066556594409</v>
       </c>
       <c r="AD13" t="n">
-        <v>261601.5980743245</v>
+        <v>338708.8363152788</v>
       </c>
       <c r="AE13" t="n">
-        <v>357934.8475332726</v>
+        <v>463436.3726258153</v>
       </c>
       <c r="AF13" t="n">
         <v>1.148266835475919e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.3515625</v>
       </c>
       <c r="AH13" t="n">
-        <v>323774.04804941</v>
+        <v>419206.6556594408</v>
       </c>
     </row>
     <row r="14">
@@ -17512,28 +17512,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>261.2607598604434</v>
+        <v>338.3679981013977</v>
       </c>
       <c r="AB14" t="n">
-        <v>357.4684976523197</v>
+        <v>462.9700227448625</v>
       </c>
       <c r="AC14" t="n">
-        <v>323.3522059465691</v>
+        <v>418.7848135566</v>
       </c>
       <c r="AD14" t="n">
-        <v>261260.7598604434</v>
+        <v>338367.9981013978</v>
       </c>
       <c r="AE14" t="n">
-        <v>357468.4976523197</v>
+        <v>462970.0227448625</v>
       </c>
       <c r="AF14" t="n">
         <v>1.147373390093228e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.36458333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>323352.2059465691</v>
+        <v>418784.8135566</v>
       </c>
     </row>
     <row r="15">
@@ -17618,28 +17618,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>260.8240085298393</v>
+        <v>337.9312467707936</v>
       </c>
       <c r="AB15" t="n">
-        <v>356.8709152136784</v>
+        <v>462.372440306221</v>
       </c>
       <c r="AC15" t="n">
-        <v>322.8116559371593</v>
+        <v>418.2442635471903</v>
       </c>
       <c r="AD15" t="n">
-        <v>260824.0085298393</v>
+        <v>337931.2467707936</v>
       </c>
       <c r="AE15" t="n">
-        <v>356870.9152136784</v>
+        <v>462372.440306221</v>
       </c>
       <c r="AF15" t="n">
         <v>1.151136690341534e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH15" t="n">
-        <v>322811.6559371593</v>
+        <v>418244.2635471902</v>
       </c>
     </row>
   </sheetData>
@@ -17915,28 +17915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>768.7675393370921</v>
+        <v>924.9728989654311</v>
       </c>
       <c r="AB2" t="n">
-        <v>1051.861662951201</v>
+        <v>1265.588727288798</v>
       </c>
       <c r="AC2" t="n">
-        <v>951.4734621362533</v>
+        <v>1144.802715421289</v>
       </c>
       <c r="AD2" t="n">
-        <v>768767.5393370921</v>
+        <v>924972.8989654311</v>
       </c>
       <c r="AE2" t="n">
-        <v>1051861.662951201</v>
+        <v>1265588.727288798</v>
       </c>
       <c r="AF2" t="n">
         <v>5.072245710088694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.58854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>951473.4621362532</v>
+        <v>1144802.715421289</v>
       </c>
     </row>
     <row r="3">
@@ -18021,28 +18021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.3225107266448</v>
+        <v>537.6795300523471</v>
       </c>
       <c r="AB3" t="n">
-        <v>588.7862436655116</v>
+        <v>735.6768537643617</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.5933109367575</v>
+        <v>665.4648873700395</v>
       </c>
       <c r="AD3" t="n">
-        <v>430322.5107266448</v>
+        <v>537679.5300523471</v>
       </c>
       <c r="AE3" t="n">
-        <v>588786.2436655116</v>
+        <v>735676.8537643617</v>
       </c>
       <c r="AF3" t="n">
         <v>7.650331682876265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.94401041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>532593.3109367575</v>
+        <v>665464.8873700395</v>
       </c>
     </row>
     <row r="4">
@@ -18127,28 +18127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>369.4623440789145</v>
+        <v>467.0565284278457</v>
       </c>
       <c r="AB4" t="n">
-        <v>505.5146786970296</v>
+        <v>639.04734727478</v>
       </c>
       <c r="AC4" t="n">
-        <v>457.269067256492</v>
+        <v>578.0575653594592</v>
       </c>
       <c r="AD4" t="n">
-        <v>369462.3440789145</v>
+        <v>467056.5284278457</v>
       </c>
       <c r="AE4" t="n">
-        <v>505514.6786970296</v>
+        <v>639047.34727478</v>
       </c>
       <c r="AF4" t="n">
         <v>8.630373529524486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>457269.067256492</v>
+        <v>578057.5653594593</v>
       </c>
     </row>
     <row r="5">
@@ -18233,28 +18233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>342.4622921084635</v>
+        <v>430.3278068994042</v>
       </c>
       <c r="AB5" t="n">
-        <v>468.5720164328333</v>
+        <v>588.7934901227318</v>
       </c>
       <c r="AC5" t="n">
-        <v>423.8521608294385</v>
+        <v>532.599865802271</v>
       </c>
       <c r="AD5" t="n">
-        <v>342462.2921084635</v>
+        <v>430327.8068994042</v>
       </c>
       <c r="AE5" t="n">
-        <v>468572.0164328333</v>
+        <v>588793.4901227318</v>
       </c>
       <c r="AF5" t="n">
         <v>9.138607184303133e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.53255208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>423852.1608294385</v>
+        <v>532599.8658022709</v>
       </c>
     </row>
     <row r="6">
@@ -18339,28 +18339,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>322.9888346302861</v>
+        <v>410.820184002446</v>
       </c>
       <c r="AB6" t="n">
-        <v>441.9275728028799</v>
+        <v>562.1022998595305</v>
       </c>
       <c r="AC6" t="n">
-        <v>399.7506255038163</v>
+        <v>508.4560452764688</v>
       </c>
       <c r="AD6" t="n">
-        <v>322988.8346302861</v>
+        <v>410820.184002446</v>
       </c>
       <c r="AE6" t="n">
-        <v>441927.5728028798</v>
+        <v>562102.2998595305</v>
       </c>
       <c r="AF6" t="n">
         <v>9.451669270927074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>399750.6255038163</v>
+        <v>508456.0452764689</v>
       </c>
     </row>
     <row r="7">
@@ -18445,28 +18445,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>316.9767775034244</v>
+        <v>404.8081268755843</v>
       </c>
       <c r="AB7" t="n">
-        <v>433.7016110086665</v>
+        <v>553.8763380653171</v>
       </c>
       <c r="AC7" t="n">
-        <v>392.3097379580328</v>
+        <v>501.0151577306852</v>
       </c>
       <c r="AD7" t="n">
-        <v>316976.7775034244</v>
+        <v>404808.1268755842</v>
       </c>
       <c r="AE7" t="n">
-        <v>433701.6110086665</v>
+        <v>553876.3380653171</v>
       </c>
       <c r="AF7" t="n">
         <v>9.644379659155491e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.61458333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>392309.7379580328</v>
+        <v>501015.1577306853</v>
       </c>
     </row>
     <row r="8">
@@ -18551,28 +18551,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>311.7401612663481</v>
+        <v>389.7755212728132</v>
       </c>
       <c r="AB8" t="n">
-        <v>426.5366416498951</v>
+        <v>533.3080638878521</v>
       </c>
       <c r="AC8" t="n">
-        <v>385.8285832187648</v>
+        <v>482.4098907729635</v>
       </c>
       <c r="AD8" t="n">
-        <v>311740.1612663481</v>
+        <v>389775.5212728132</v>
       </c>
       <c r="AE8" t="n">
-        <v>426536.6416498951</v>
+        <v>533308.0638878521</v>
       </c>
       <c r="AF8" t="n">
         <v>9.817892843958857e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.32161458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>385828.5832187648</v>
+        <v>482409.8907729635</v>
       </c>
     </row>
     <row r="9">
@@ -18657,28 +18657,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>308.0131383861762</v>
+        <v>386.0484983926413</v>
       </c>
       <c r="AB9" t="n">
-        <v>421.437164520599</v>
+        <v>528.2085867585561</v>
       </c>
       <c r="AC9" t="n">
-        <v>381.2157930295276</v>
+        <v>477.7971005837263</v>
       </c>
       <c r="AD9" t="n">
-        <v>308013.1383861762</v>
+        <v>386048.4983926413</v>
       </c>
       <c r="AE9" t="n">
-        <v>421437.1645205989</v>
+        <v>528208.5867585561</v>
       </c>
       <c r="AF9" t="n">
         <v>9.937752306369122e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.12630208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>381215.7930295276</v>
+        <v>477797.1005837263</v>
       </c>
     </row>
     <row r="10">
@@ -18763,28 +18763,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>295.0034892805702</v>
+        <v>382.8006732339493</v>
       </c>
       <c r="AB10" t="n">
-        <v>403.6367886690974</v>
+        <v>523.7647690925</v>
       </c>
       <c r="AC10" t="n">
-        <v>365.1142600663088</v>
+        <v>473.7773946387815</v>
       </c>
       <c r="AD10" t="n">
-        <v>295003.4892805702</v>
+        <v>382800.6732339493</v>
       </c>
       <c r="AE10" t="n">
-        <v>403636.7886690974</v>
+        <v>523764.7690925001</v>
       </c>
       <c r="AF10" t="n">
         <v>1.003004655360496e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.9765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>365114.2600663088</v>
+        <v>473777.3946387814</v>
       </c>
     </row>
     <row r="11">
@@ -18869,28 +18869,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>292.6980916764622</v>
+        <v>380.4952756298413</v>
       </c>
       <c r="AB11" t="n">
-        <v>400.4824419601927</v>
+        <v>520.6104223835954</v>
       </c>
       <c r="AC11" t="n">
-        <v>362.2609597801486</v>
+        <v>470.9240943526212</v>
       </c>
       <c r="AD11" t="n">
-        <v>292698.0916764622</v>
+        <v>380495.2756298413</v>
       </c>
       <c r="AE11" t="n">
-        <v>400482.4419601926</v>
+        <v>520610.4223835954</v>
       </c>
       <c r="AF11" t="n">
         <v>1.008689980990223e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.88541666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>362260.9597801486</v>
+        <v>470924.0943526212</v>
       </c>
     </row>
     <row r="12">
@@ -18975,28 +18975,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>290.2527907733754</v>
+        <v>368.355470587545</v>
       </c>
       <c r="AB12" t="n">
-        <v>397.1366733855272</v>
+        <v>504.0002055543258</v>
       </c>
       <c r="AC12" t="n">
-        <v>359.2345066624335</v>
+        <v>455.8991333049514</v>
       </c>
       <c r="AD12" t="n">
-        <v>290252.7907733754</v>
+        <v>368355.470587545</v>
       </c>
       <c r="AE12" t="n">
-        <v>397136.6733855272</v>
+        <v>504000.2055543258</v>
       </c>
       <c r="AF12" t="n">
         <v>1.015975073572038e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.76822916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>359234.5066624336</v>
+        <v>455899.1333049514</v>
       </c>
     </row>
     <row r="13">
@@ -19081,28 +19081,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>287.5104785791522</v>
+        <v>365.6131583933217</v>
       </c>
       <c r="AB13" t="n">
-        <v>393.3845208591154</v>
+        <v>500.2480530279139</v>
       </c>
       <c r="AC13" t="n">
-        <v>355.8404543069634</v>
+        <v>452.5050809494811</v>
       </c>
       <c r="AD13" t="n">
-        <v>287510.4785791521</v>
+        <v>365613.1583933217</v>
       </c>
       <c r="AE13" t="n">
-        <v>393384.5208591154</v>
+        <v>500248.0530279139</v>
       </c>
       <c r="AF13" t="n">
         <v>1.021906517194394e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.67708333333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>355840.4543069634</v>
+        <v>452505.0809494811</v>
       </c>
     </row>
     <row r="14">
@@ -19187,28 +19187,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>286.4077050283577</v>
+        <v>364.5103848425273</v>
       </c>
       <c r="AB14" t="n">
-        <v>391.875657435983</v>
+        <v>498.7391896047816</v>
       </c>
       <c r="AC14" t="n">
-        <v>354.4755946912316</v>
+        <v>451.1402213337494</v>
       </c>
       <c r="AD14" t="n">
-        <v>286407.7050283577</v>
+        <v>364510.3848425273</v>
       </c>
       <c r="AE14" t="n">
-        <v>391875.6574359831</v>
+        <v>498739.1896047816</v>
       </c>
       <c r="AF14" t="n">
         <v>1.024367697120683e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.64453125</v>
       </c>
       <c r="AH14" t="n">
-        <v>354475.5946912316</v>
+        <v>451140.2213337494</v>
       </c>
     </row>
     <row r="15">
@@ -19293,28 +19293,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>283.8145827333359</v>
+        <v>361.9172625475055</v>
       </c>
       <c r="AB15" t="n">
-        <v>388.3276331114525</v>
+        <v>495.1911652802511</v>
       </c>
       <c r="AC15" t="n">
-        <v>351.2661888285509</v>
+        <v>447.9308154710687</v>
       </c>
       <c r="AD15" t="n">
-        <v>283814.5827333359</v>
+        <v>361917.2625475055</v>
       </c>
       <c r="AE15" t="n">
-        <v>388327.6331114526</v>
+        <v>495191.1652802511</v>
       </c>
       <c r="AF15" t="n">
         <v>1.028576314794637e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.57942708333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>351266.1888285509</v>
+        <v>447930.8154710687</v>
       </c>
     </row>
     <row r="16">
@@ -19399,28 +19399,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>282.5679227124199</v>
+        <v>360.6706025265894</v>
       </c>
       <c r="AB16" t="n">
-        <v>386.6218978720767</v>
+        <v>493.4854300408753</v>
       </c>
       <c r="AC16" t="n">
-        <v>349.7232465664066</v>
+        <v>446.3878732089244</v>
       </c>
       <c r="AD16" t="n">
-        <v>282567.9227124199</v>
+        <v>360670.6025265894</v>
       </c>
       <c r="AE16" t="n">
-        <v>386621.8978720767</v>
+        <v>493485.4300408753</v>
       </c>
       <c r="AF16" t="n">
         <v>1.030471423337879e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.546875</v>
       </c>
       <c r="AH16" t="n">
-        <v>349723.2465664066</v>
+        <v>446387.8732089244</v>
       </c>
     </row>
     <row r="17">
@@ -19505,28 +19505,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>280.6727034337138</v>
+        <v>358.6738980213981</v>
       </c>
       <c r="AB17" t="n">
-        <v>384.0287752437774</v>
+        <v>490.7534508484866</v>
       </c>
       <c r="AC17" t="n">
-        <v>347.3776079222817</v>
+        <v>443.9166302763005</v>
       </c>
       <c r="AD17" t="n">
-        <v>280672.7034337138</v>
+        <v>358673.8980213981</v>
       </c>
       <c r="AE17" t="n">
-        <v>384028.7752437774</v>
+        <v>490753.4508484866</v>
       </c>
       <c r="AF17" t="n">
         <v>1.034704652811096e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.48828125</v>
       </c>
       <c r="AH17" t="n">
-        <v>347377.6079222817</v>
+        <v>443916.6302763005</v>
       </c>
     </row>
     <row r="18">
@@ -19611,28 +19611,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>278.6213813879979</v>
+        <v>356.6225759756823</v>
       </c>
       <c r="AB18" t="n">
-        <v>381.2220659228873</v>
+        <v>487.9467415275966</v>
       </c>
       <c r="AC18" t="n">
-        <v>344.8387669997362</v>
+        <v>441.377789353755</v>
       </c>
       <c r="AD18" t="n">
-        <v>278621.3813879979</v>
+        <v>356622.5759756822</v>
       </c>
       <c r="AE18" t="n">
-        <v>381222.0659228873</v>
+        <v>487946.7415275966</v>
       </c>
       <c r="AF18" t="n">
         <v>1.037362727131488e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.44921875</v>
       </c>
       <c r="AH18" t="n">
-        <v>344838.7669997362</v>
+        <v>441377.789353755</v>
       </c>
     </row>
     <row r="19">
@@ -19717,28 +19717,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>277.9484041389789</v>
+        <v>355.9495987266632</v>
       </c>
       <c r="AB19" t="n">
-        <v>380.3012687611186</v>
+        <v>487.025944365828</v>
       </c>
       <c r="AC19" t="n">
-        <v>344.0058494267398</v>
+        <v>440.5448717807586</v>
       </c>
       <c r="AD19" t="n">
-        <v>277948.4041389789</v>
+        <v>355949.5987266632</v>
       </c>
       <c r="AE19" t="n">
-        <v>380301.2687611186</v>
+        <v>487025.9443658279</v>
       </c>
       <c r="AF19" t="n">
         <v>1.037264279934436e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.44921875</v>
       </c>
       <c r="AH19" t="n">
-        <v>344005.8494267397</v>
+        <v>440544.8717807585</v>
       </c>
     </row>
     <row r="20">
@@ -19823,28 +19823,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>277.1581052817807</v>
+        <v>355.1592998694651</v>
       </c>
       <c r="AB20" t="n">
-        <v>379.2199469991752</v>
+        <v>485.9446226038846</v>
       </c>
       <c r="AC20" t="n">
-        <v>343.0277274961116</v>
+        <v>439.5667498501304</v>
       </c>
       <c r="AD20" t="n">
-        <v>277158.1052817807</v>
+        <v>355159.2998694651</v>
       </c>
       <c r="AE20" t="n">
-        <v>379219.9469991752</v>
+        <v>485944.6226038845</v>
       </c>
       <c r="AF20" t="n">
         <v>1.040414590240086e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.40364583333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>343027.7274961116</v>
+        <v>439566.7498501304</v>
       </c>
     </row>
     <row r="21">
@@ -19929,28 +19929,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>277.4719176204287</v>
+        <v>355.4731122081131</v>
       </c>
       <c r="AB21" t="n">
-        <v>379.6493188853368</v>
+        <v>486.373994490046</v>
       </c>
       <c r="AC21" t="n">
-        <v>343.4161207320851</v>
+        <v>439.9551430861038</v>
       </c>
       <c r="AD21" t="n">
-        <v>277471.9176204287</v>
+        <v>355473.1122081131</v>
       </c>
       <c r="AE21" t="n">
-        <v>379649.3188853367</v>
+        <v>486373.994490046</v>
       </c>
       <c r="AF21" t="n">
         <v>1.040513037437137e-05</v>
       </c>
       <c r="AG21" t="n">
-        <v>16</v>
+        <v>15.39713541666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>343416.1207320851</v>
+        <v>439955.1430861038</v>
       </c>
     </row>
   </sheetData>
@@ -20226,28 +20226,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.0428323149332</v>
+        <v>545.2455707666251</v>
       </c>
       <c r="AB2" t="n">
-        <v>589.7718194409534</v>
+        <v>746.0290444597956</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.4848247434555</v>
+        <v>674.8290795148921</v>
       </c>
       <c r="AD2" t="n">
-        <v>431042.8323149332</v>
+        <v>545245.5707666251</v>
       </c>
       <c r="AE2" t="n">
-        <v>589771.8194409534</v>
+        <v>746029.0444597956</v>
       </c>
       <c r="AF2" t="n">
         <v>8.69412156690572e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.97526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>533484.8247434555</v>
+        <v>674829.0795148921</v>
       </c>
     </row>
     <row r="3">
@@ -20332,28 +20332,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.8396520733242</v>
+        <v>402.9687411278232</v>
       </c>
       <c r="AB3" t="n">
-        <v>421.1997928936789</v>
+        <v>551.3596093372583</v>
       </c>
       <c r="AC3" t="n">
-        <v>381.0010758175276</v>
+        <v>498.7386220601815</v>
       </c>
       <c r="AD3" t="n">
-        <v>307839.6520733242</v>
+        <v>402968.7411278232</v>
       </c>
       <c r="AE3" t="n">
-        <v>421199.7928936789</v>
+        <v>551359.6093372584</v>
       </c>
       <c r="AF3" t="n">
         <v>1.110789395421682e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.98177083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>381001.0758175276</v>
+        <v>498738.6220601815</v>
       </c>
     </row>
     <row r="4">
@@ -20438,28 +20438,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>279.9615034726885</v>
+        <v>365.6050159567624</v>
       </c>
       <c r="AB4" t="n">
-        <v>383.0556800811748</v>
+        <v>500.2369121869945</v>
       </c>
       <c r="AC4" t="n">
-        <v>346.4973835962503</v>
+        <v>452.4950033747827</v>
       </c>
       <c r="AD4" t="n">
-        <v>279961.5034726885</v>
+        <v>365605.0159567624</v>
       </c>
       <c r="AE4" t="n">
-        <v>383055.6800811748</v>
+        <v>500236.9121869945</v>
       </c>
       <c r="AF4" t="n">
         <v>1.196853098820787e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.69270833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>346497.3835962503</v>
+        <v>452495.0033747827</v>
       </c>
     </row>
     <row r="5">
@@ -20544,28 +20544,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>271.7159058414381</v>
+        <v>347.8065219473822</v>
       </c>
       <c r="AB5" t="n">
-        <v>371.7736896320041</v>
+        <v>475.8842274692225</v>
       </c>
       <c r="AC5" t="n">
-        <v>336.2921304811754</v>
+        <v>430.4665047072673</v>
       </c>
       <c r="AD5" t="n">
-        <v>271715.9058414381</v>
+        <v>347806.5219473822</v>
       </c>
       <c r="AE5" t="n">
-        <v>371773.6896320041</v>
+        <v>475884.2274692225</v>
       </c>
       <c r="AF5" t="n">
         <v>1.238243450295081e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.1328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>336292.1304811754</v>
+        <v>430466.5047072673</v>
       </c>
     </row>
     <row r="6">
@@ -20650,28 +20650,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>256.605709665475</v>
+        <v>332.7636455791268</v>
       </c>
       <c r="AB6" t="n">
-        <v>351.0992526090775</v>
+        <v>455.3019003773078</v>
       </c>
       <c r="AC6" t="n">
-        <v>317.5908327110679</v>
+        <v>411.8485260255274</v>
       </c>
       <c r="AD6" t="n">
-        <v>256605.7096654751</v>
+        <v>332763.6455791268</v>
       </c>
       <c r="AE6" t="n">
-        <v>351099.2526090775</v>
+        <v>455301.9003773078</v>
       </c>
       <c r="AF6" t="n">
         <v>1.262513107831157e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.8203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>317590.8327110679</v>
+        <v>411848.5260255274</v>
       </c>
     </row>
     <row r="7">
@@ -20756,28 +20756,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>251.8240188935157</v>
+        <v>327.9819548071673</v>
       </c>
       <c r="AB7" t="n">
-        <v>344.5567323415774</v>
+        <v>448.7593801098044</v>
       </c>
       <c r="AC7" t="n">
-        <v>311.6727213954111</v>
+        <v>405.9304147098696</v>
       </c>
       <c r="AD7" t="n">
-        <v>251824.0188935157</v>
+        <v>327981.9548071673</v>
       </c>
       <c r="AE7" t="n">
-        <v>344556.7323415774</v>
+        <v>448759.3801098044</v>
       </c>
       <c r="AF7" t="n">
         <v>1.282456568511876e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.57291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>311672.7213954111</v>
+        <v>405930.4147098696</v>
       </c>
     </row>
     <row r="8">
@@ -20862,28 +20862,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>247.7376269713462</v>
+        <v>323.7940776585125</v>
       </c>
       <c r="AB8" t="n">
-        <v>338.9655506347798</v>
+        <v>443.0293418389145</v>
       </c>
       <c r="AC8" t="n">
-        <v>306.6151542234357</v>
+        <v>400.7472432493943</v>
       </c>
       <c r="AD8" t="n">
-        <v>247737.6269713462</v>
+        <v>323794.0776585126</v>
       </c>
       <c r="AE8" t="n">
-        <v>338965.5506347798</v>
+        <v>443029.3418389146</v>
       </c>
       <c r="AF8" t="n">
         <v>1.29614085076357e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.41015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>306615.1542234357</v>
+        <v>400747.2432493943</v>
       </c>
     </row>
     <row r="9">
@@ -20968,28 +20968,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>245.516619532716</v>
+        <v>321.5730702198824</v>
       </c>
       <c r="AB9" t="n">
-        <v>335.9266702733147</v>
+        <v>439.9904614774479</v>
       </c>
       <c r="AC9" t="n">
-        <v>303.8663003385723</v>
+        <v>397.9983893645306</v>
       </c>
       <c r="AD9" t="n">
-        <v>245516.619532716</v>
+        <v>321573.0702198824</v>
       </c>
       <c r="AE9" t="n">
-        <v>335926.6702733147</v>
+        <v>439990.4614774479</v>
       </c>
       <c r="AF9" t="n">
         <v>1.301234103798954e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.3515625</v>
       </c>
       <c r="AH9" t="n">
-        <v>303866.3003385724</v>
+        <v>397998.3893645306</v>
       </c>
     </row>
     <row r="10">
@@ -21074,28 +21074,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>244.9621818813561</v>
+        <v>321.0186325685225</v>
       </c>
       <c r="AB10" t="n">
-        <v>335.1680642186616</v>
+        <v>439.2318554227945</v>
       </c>
       <c r="AC10" t="n">
-        <v>303.1800945810649</v>
+        <v>397.312183607023</v>
       </c>
       <c r="AD10" t="n">
-        <v>244962.1818813561</v>
+        <v>321018.6325685225</v>
       </c>
       <c r="AE10" t="n">
-        <v>335168.0642186616</v>
+        <v>439231.8554227945</v>
       </c>
       <c r="AF10" t="n">
         <v>1.304701197732679e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH10" t="n">
-        <v>303180.0945810649</v>
+        <v>397312.183607023</v>
       </c>
     </row>
   </sheetData>
@@ -21371,28 +21371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.8770568336514</v>
+        <v>452.2531584699856</v>
       </c>
       <c r="AB2" t="n">
-        <v>477.348980529282</v>
+        <v>618.7927234198452</v>
       </c>
       <c r="AC2" t="n">
-        <v>431.7914637910685</v>
+        <v>559.7360143776964</v>
       </c>
       <c r="AD2" t="n">
-        <v>348877.0568336514</v>
+        <v>452253.1584699856</v>
       </c>
       <c r="AE2" t="n">
-        <v>477348.980529282</v>
+        <v>618792.7234198452</v>
       </c>
       <c r="AF2" t="n">
         <v>1.107933050454495e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.50130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>431791.4637910685</v>
+        <v>559736.0143776964</v>
       </c>
     </row>
     <row r="3">
@@ -21477,28 +21477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>265.8207527937311</v>
+        <v>350.3949876927716</v>
       </c>
       <c r="AB3" t="n">
-        <v>363.7076811563341</v>
+        <v>479.4258804971136</v>
       </c>
       <c r="AC3" t="n">
-        <v>328.9959305337093</v>
+        <v>433.6701473409176</v>
       </c>
       <c r="AD3" t="n">
-        <v>265820.7527937311</v>
+        <v>350394.9876927716</v>
       </c>
       <c r="AE3" t="n">
-        <v>363707.6811563341</v>
+        <v>479425.8804971136</v>
       </c>
       <c r="AF3" t="n">
         <v>1.337355468812299e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.98567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>328995.9305337094</v>
+        <v>433670.1473409176</v>
       </c>
     </row>
     <row r="4">
@@ -21583,28 +21583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>253.3893015447595</v>
+        <v>328.5294486862328</v>
       </c>
       <c r="AB4" t="n">
-        <v>346.6984211204051</v>
+        <v>449.508485388867</v>
       </c>
       <c r="AC4" t="n">
-        <v>313.6100104030672</v>
+        <v>406.6080264324743</v>
       </c>
       <c r="AD4" t="n">
-        <v>253389.3015447595</v>
+        <v>328529.4486862328</v>
       </c>
       <c r="AE4" t="n">
-        <v>346698.4211204051</v>
+        <v>449508.485388867</v>
       </c>
       <c r="AF4" t="n">
         <v>1.413096963680728e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.07421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>313610.0104030672</v>
+        <v>406608.0264324743</v>
       </c>
     </row>
     <row r="5">
@@ -21689,28 +21689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>236.6186285195214</v>
+        <v>311.8260954686988</v>
       </c>
       <c r="AB5" t="n">
-        <v>323.7520464174093</v>
+        <v>426.654220616701</v>
       </c>
       <c r="AC5" t="n">
-        <v>292.8536054962789</v>
+        <v>385.9349406140017</v>
       </c>
       <c r="AD5" t="n">
-        <v>236618.6285195214</v>
+        <v>311826.0954686988</v>
       </c>
       <c r="AE5" t="n">
-        <v>323752.0464174093</v>
+        <v>426654.2206167009</v>
       </c>
       <c r="AF5" t="n">
         <v>1.453183088786129e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.63151041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>292853.6054962789</v>
+        <v>385934.9406140017</v>
       </c>
     </row>
     <row r="6">
@@ -21795,28 +21795,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>232.6236657680735</v>
+        <v>307.7296474907656</v>
       </c>
       <c r="AB6" t="n">
-        <v>318.2859621355631</v>
+        <v>421.0492797707627</v>
       </c>
       <c r="AC6" t="n">
-        <v>287.9091966265929</v>
+        <v>380.8649274558159</v>
       </c>
       <c r="AD6" t="n">
-        <v>232623.6657680735</v>
+        <v>307729.6474907656</v>
       </c>
       <c r="AE6" t="n">
-        <v>318285.9621355631</v>
+        <v>421049.2797707627</v>
       </c>
       <c r="AF6" t="n">
         <v>1.473173819582817e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>287909.1966265929</v>
+        <v>380864.9274558159</v>
       </c>
     </row>
     <row r="7">
@@ -21901,28 +21901,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>232.0608150106266</v>
+        <v>307.1667967333188</v>
       </c>
       <c r="AB7" t="n">
-        <v>317.5158448980019</v>
+        <v>420.2791625332009</v>
       </c>
       <c r="AC7" t="n">
-        <v>287.2125782973179</v>
+        <v>380.1683091265408</v>
       </c>
       <c r="AD7" t="n">
-        <v>232060.8150106266</v>
+        <v>307166.7967333188</v>
       </c>
       <c r="AE7" t="n">
-        <v>317515.8448980019</v>
+        <v>420279.1625332009</v>
       </c>
       <c r="AF7" t="n">
         <v>1.477465023575823e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.37109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>287212.5782973179</v>
+        <v>380168.3091265408</v>
       </c>
     </row>
   </sheetData>
@@ -40955,28 +40955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.1460405977161</v>
+        <v>385.1715493554583</v>
       </c>
       <c r="AB2" t="n">
-        <v>399.7271013194775</v>
+        <v>527.0087063976212</v>
       </c>
       <c r="AC2" t="n">
-        <v>361.577707790056</v>
+        <v>476.7117351203965</v>
       </c>
       <c r="AD2" t="n">
-        <v>292146.0405977161</v>
+        <v>385171.5493554583</v>
       </c>
       <c r="AE2" t="n">
-        <v>399727.1013194775</v>
+        <v>527008.7063976212</v>
       </c>
       <c r="AF2" t="n">
         <v>1.344675888718178e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.97135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>361577.707790056</v>
+        <v>476711.7351203965</v>
       </c>
     </row>
     <row r="3">
@@ -41061,28 +41061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.0954897074228</v>
+        <v>317.4759092409399</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.6139736336408</v>
+        <v>434.3845450720734</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.869762816789</v>
+        <v>392.927493752932</v>
       </c>
       <c r="AD3" t="n">
-        <v>243095.4897074229</v>
+        <v>317475.9092409399</v>
       </c>
       <c r="AE3" t="n">
-        <v>332613.9736336408</v>
+        <v>434384.5450720733</v>
       </c>
       <c r="AF3" t="n">
         <v>1.561030791326038e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.34114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>300869.762816789</v>
+        <v>392927.493752932</v>
       </c>
     </row>
     <row r="4">
@@ -41167,28 +41167,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.2284914649089</v>
+        <v>298.6762308061301</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.7993142850283</v>
+        <v>408.6619956542891</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.518818325298</v>
+        <v>369.6598683497562</v>
       </c>
       <c r="AD4" t="n">
-        <v>224228.4914649089</v>
+        <v>298676.2308061302</v>
       </c>
       <c r="AE4" t="n">
-        <v>306799.3142850283</v>
+        <v>408661.9956542891</v>
       </c>
       <c r="AF4" t="n">
         <v>1.629635904413029e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>277518.818325298</v>
+        <v>369659.8683497562</v>
       </c>
     </row>
     <row r="5">
@@ -41273,28 +41273,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.2830701027542</v>
+        <v>296.7308094439753</v>
       </c>
       <c r="AB5" t="n">
-        <v>304.1375029513963</v>
+        <v>406.0001843206556</v>
       </c>
       <c r="AC5" t="n">
-        <v>275.1110465294713</v>
+        <v>367.2520965539292</v>
       </c>
       <c r="AD5" t="n">
-        <v>222283.0701027542</v>
+        <v>296730.8094439753</v>
       </c>
       <c r="AE5" t="n">
-        <v>304137.5029513963</v>
+        <v>406000.1843206557</v>
       </c>
       <c r="AF5" t="n">
         <v>1.644093521048723e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.51432291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>275111.0465294712</v>
+        <v>367252.0965539292</v>
       </c>
     </row>
   </sheetData>
@@ -41570,28 +41570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>215.9976430485704</v>
+        <v>298.0229166994928</v>
       </c>
       <c r="AB2" t="n">
-        <v>295.5375043623952</v>
+        <v>407.7681024714037</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.3318197356278</v>
+        <v>368.8512870776584</v>
       </c>
       <c r="AD2" t="n">
-        <v>215997.6430485704</v>
+        <v>298022.9166994928</v>
       </c>
       <c r="AE2" t="n">
-        <v>295537.5043623951</v>
+        <v>407768.1024714037</v>
       </c>
       <c r="AF2" t="n">
         <v>2.031856587026049e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.6015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>267331.8197356279</v>
+        <v>368851.2870776584</v>
       </c>
     </row>
     <row r="3">
@@ -41676,28 +41676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.9967715786344</v>
+        <v>285.8711753884442</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.431579628125</v>
+        <v>391.1415539126361</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.6177586952936</v>
+        <v>353.8115529778322</v>
       </c>
       <c r="AD3" t="n">
-        <v>212996.7715786344</v>
+        <v>285871.1753884442</v>
       </c>
       <c r="AE3" t="n">
-        <v>291431.579628125</v>
+        <v>391141.5539126361</v>
       </c>
       <c r="AF3" t="n">
         <v>2.081500009886823e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.2109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>263617.7586952936</v>
+        <v>353811.5529778322</v>
       </c>
     </row>
   </sheetData>
@@ -41973,28 +41973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>535.345858859844</v>
+        <v>669.9636207133232</v>
       </c>
       <c r="AB2" t="n">
-        <v>732.4838218844721</v>
+        <v>916.6737825689073</v>
       </c>
       <c r="AC2" t="n">
-        <v>662.5765939713181</v>
+        <v>829.1877233202644</v>
       </c>
       <c r="AD2" t="n">
-        <v>535345.858859844</v>
+        <v>669963.6207133231</v>
       </c>
       <c r="AE2" t="n">
-        <v>732483.8218844722</v>
+        <v>916673.7825689074</v>
       </c>
       <c r="AF2" t="n">
         <v>7.03553409529561e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.76171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>662576.5939713181</v>
+        <v>829187.7233202644</v>
       </c>
     </row>
     <row r="3">
@@ -42079,28 +42079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>360.2165692637315</v>
+        <v>446.7673316047626</v>
       </c>
       <c r="AB3" t="n">
-        <v>492.864201700099</v>
+        <v>611.2867730852465</v>
       </c>
       <c r="AC3" t="n">
-        <v>445.8259340290924</v>
+        <v>552.9464214083645</v>
       </c>
       <c r="AD3" t="n">
-        <v>360216.5692637315</v>
+        <v>446767.3316047626</v>
       </c>
       <c r="AE3" t="n">
-        <v>492864.201700099</v>
+        <v>611286.7730852466</v>
       </c>
       <c r="AF3" t="n">
         <v>9.525656062708235e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.0234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>445825.9340290924</v>
+        <v>552946.4214083644</v>
       </c>
     </row>
     <row r="4">
@@ -42185,28 +42185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>315.8490967307651</v>
+        <v>402.3315282342347</v>
       </c>
       <c r="AB4" t="n">
-        <v>432.1586684257495</v>
+        <v>550.4877465444014</v>
       </c>
       <c r="AC4" t="n">
-        <v>390.9140516496958</v>
+        <v>497.9499686286078</v>
       </c>
       <c r="AD4" t="n">
-        <v>315849.0967307651</v>
+        <v>402331.5282342347</v>
       </c>
       <c r="AE4" t="n">
-        <v>432158.6684257495</v>
+        <v>550487.7465444014</v>
       </c>
       <c r="AF4" t="n">
         <v>1.042204429468908e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.38932291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>390914.0516496958</v>
+        <v>497949.9686286078</v>
       </c>
     </row>
     <row r="5">
@@ -42291,28 +42291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>294.9919339576846</v>
+        <v>381.5416852688585</v>
       </c>
       <c r="AB5" t="n">
-        <v>403.6209781665404</v>
+        <v>522.0421662160338</v>
       </c>
       <c r="AC5" t="n">
-        <v>365.0999584959258</v>
+        <v>472.2191945631568</v>
       </c>
       <c r="AD5" t="n">
-        <v>294991.9339576846</v>
+        <v>381541.6852688585</v>
       </c>
       <c r="AE5" t="n">
-        <v>403620.9781665404</v>
+        <v>522042.1662160339</v>
       </c>
       <c r="AF5" t="n">
         <v>1.088304395685065e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.65364583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>365099.9584959258</v>
+        <v>472219.1945631568</v>
       </c>
     </row>
     <row r="6">
@@ -42397,28 +42397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>287.9592811612555</v>
+        <v>364.8554428912886</v>
       </c>
       <c r="AB6" t="n">
-        <v>393.9985923517218</v>
+        <v>499.2113132499837</v>
       </c>
       <c r="AC6" t="n">
-        <v>356.3959196781701</v>
+        <v>451.5672861608832</v>
       </c>
       <c r="AD6" t="n">
-        <v>287959.2811612556</v>
+        <v>364855.4428912887</v>
       </c>
       <c r="AE6" t="n">
-        <v>393998.5923517218</v>
+        <v>499211.3132499837</v>
       </c>
       <c r="AF6" t="n">
         <v>1.117033360138613e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.22395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>356395.9196781701</v>
+        <v>451567.2861608831</v>
       </c>
     </row>
     <row r="7">
@@ -42503,28 +42503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>273.7528728970523</v>
+        <v>360.2684587894453</v>
       </c>
       <c r="AB7" t="n">
-        <v>374.5607578221395</v>
+        <v>492.9351992383852</v>
       </c>
       <c r="AC7" t="n">
-        <v>338.813204794919</v>
+        <v>445.8901556619701</v>
       </c>
       <c r="AD7" t="n">
-        <v>273752.8728970523</v>
+        <v>360268.4587894453</v>
       </c>
       <c r="AE7" t="n">
-        <v>374560.7578221395</v>
+        <v>492935.1992383852</v>
       </c>
       <c r="AF7" t="n">
         <v>1.134654905195876e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.97005208333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>338813.2047949191</v>
+        <v>445890.1556619701</v>
       </c>
     </row>
     <row r="8">
@@ -42609,28 +42609,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>269.2160836586025</v>
+        <v>346.1795651963401</v>
       </c>
       <c r="AB8" t="n">
-        <v>368.3533226370773</v>
+        <v>473.6581534661806</v>
       </c>
       <c r="AC8" t="n">
-        <v>333.1981985117291</v>
+        <v>428.4528840827612</v>
       </c>
       <c r="AD8" t="n">
-        <v>269216.0836586026</v>
+        <v>346179.5651963401</v>
       </c>
       <c r="AE8" t="n">
-        <v>368353.3226370772</v>
+        <v>473658.1534661806</v>
       </c>
       <c r="AF8" t="n">
         <v>1.151079410067575e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.7421875</v>
       </c>
       <c r="AH8" t="n">
-        <v>333198.1985117291</v>
+        <v>428452.8840827612</v>
       </c>
     </row>
     <row r="9">
@@ -42715,28 +42715,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>266.0770742079554</v>
+        <v>343.0405557456929</v>
       </c>
       <c r="AB9" t="n">
-        <v>364.0583914233786</v>
+        <v>469.3632222524819</v>
       </c>
       <c r="AC9" t="n">
-        <v>329.313169505092</v>
+        <v>424.5678550761241</v>
       </c>
       <c r="AD9" t="n">
-        <v>266077.0742079554</v>
+        <v>343040.5557456929</v>
       </c>
       <c r="AE9" t="n">
-        <v>364058.3914233785</v>
+        <v>469363.2222524818</v>
       </c>
       <c r="AF9" t="n">
         <v>1.160767084127492e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.61197916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>329313.169505092</v>
+        <v>424567.8550761241</v>
       </c>
     </row>
     <row r="10">
@@ -42821,28 +42821,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>263.5950226364782</v>
+        <v>340.5585041742157</v>
       </c>
       <c r="AB10" t="n">
-        <v>360.6623389628962</v>
+        <v>465.9671697919995</v>
       </c>
       <c r="AC10" t="n">
-        <v>326.2412315250485</v>
+        <v>421.4959170960806</v>
       </c>
       <c r="AD10" t="n">
-        <v>263595.0226364782</v>
+        <v>340558.5041742157</v>
       </c>
       <c r="AE10" t="n">
-        <v>360662.3389628962</v>
+        <v>465967.1697919995</v>
       </c>
       <c r="AF10" t="n">
         <v>1.166752285055314e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.53385416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>326241.2315250485</v>
+        <v>421495.9170960806</v>
       </c>
     </row>
     <row r="11">
@@ -42927,28 +42927,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>260.1545503744518</v>
+        <v>337.0165466857042</v>
       </c>
       <c r="AB11" t="n">
-        <v>355.9549330310679</v>
+        <v>461.120907296082</v>
       </c>
       <c r="AC11" t="n">
-        <v>321.9830938084682</v>
+        <v>417.1121750910012</v>
       </c>
       <c r="AD11" t="n">
-        <v>260154.5503744519</v>
+        <v>337016.5466857041</v>
       </c>
       <c r="AE11" t="n">
-        <v>355954.9330310679</v>
+        <v>461120.907296082</v>
       </c>
       <c r="AF11" t="n">
         <v>1.176913207560687e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.39713541666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>321983.0938084682</v>
+        <v>417112.1750910012</v>
       </c>
     </row>
     <row r="12">
@@ -43033,28 +43033,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>257.6560030575559</v>
+        <v>334.5179993688115</v>
       </c>
       <c r="AB12" t="n">
-        <v>352.5363103637961</v>
+        <v>457.7022846289813</v>
       </c>
       <c r="AC12" t="n">
-        <v>318.8907396905999</v>
+        <v>414.0198209731817</v>
       </c>
       <c r="AD12" t="n">
-        <v>257656.0030575559</v>
+        <v>334517.9993688115</v>
       </c>
       <c r="AE12" t="n">
-        <v>352536.3103637961</v>
+        <v>457702.2846289813</v>
       </c>
       <c r="AF12" t="n">
         <v>1.180587842548932e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.3515625</v>
       </c>
       <c r="AH12" t="n">
-        <v>318890.7396905999</v>
+        <v>414019.8209731816</v>
       </c>
     </row>
     <row r="13">
@@ -43139,28 +43139,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>256.9658345419434</v>
+        <v>333.8278308531989</v>
       </c>
       <c r="AB13" t="n">
-        <v>351.5919913526495</v>
+        <v>456.7579656178343</v>
       </c>
       <c r="AC13" t="n">
-        <v>318.0365451605168</v>
+        <v>413.1656264430983</v>
       </c>
       <c r="AD13" t="n">
-        <v>256965.8345419434</v>
+        <v>333827.8308531989</v>
       </c>
       <c r="AE13" t="n">
-        <v>351591.9913526495</v>
+        <v>456757.9656178342</v>
       </c>
       <c r="AF13" t="n">
         <v>1.183148951783163e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.31901041666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>318036.5451605167</v>
+        <v>413165.6264430984</v>
       </c>
     </row>
     <row r="14">
@@ -43245,28 +43245,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>257.3979287067527</v>
+        <v>334.2599250180083</v>
       </c>
       <c r="AB14" t="n">
-        <v>352.1832016515905</v>
+        <v>457.3491759167755</v>
       </c>
       <c r="AC14" t="n">
-        <v>318.5713311782959</v>
+        <v>413.7004124608775</v>
       </c>
       <c r="AD14" t="n">
-        <v>257397.9287067527</v>
+        <v>334259.9250180083</v>
       </c>
       <c r="AE14" t="n">
-        <v>352183.2016515905</v>
+        <v>457349.1759167755</v>
       </c>
       <c r="AF14" t="n">
         <v>1.18292624663236e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.31901041666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>318571.3311782959</v>
+        <v>413700.4124608775</v>
       </c>
     </row>
   </sheetData>
@@ -43542,28 +43542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>719.3250836332578</v>
+        <v>865.3026957199522</v>
       </c>
       <c r="AB2" t="n">
-        <v>984.2123138100135</v>
+        <v>1183.945322744756</v>
       </c>
       <c r="AC2" t="n">
-        <v>890.2804719306432</v>
+        <v>1070.951242819693</v>
       </c>
       <c r="AD2" t="n">
-        <v>719325.0836332578</v>
+        <v>865302.6957199522</v>
       </c>
       <c r="AE2" t="n">
-        <v>984212.3138100135</v>
+        <v>1183945.322744756</v>
       </c>
       <c r="AF2" t="n">
         <v>5.395881830274184e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.3515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>890280.4719306432</v>
+        <v>1070951.242819693</v>
       </c>
     </row>
     <row r="3">
@@ -43648,28 +43648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>417.1848844078418</v>
+        <v>524.2503357116202</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.8107637449576</v>
+        <v>717.3024376131382</v>
       </c>
       <c r="AC3" t="n">
-        <v>516.3333855910766</v>
+        <v>648.8440997076337</v>
       </c>
       <c r="AD3" t="n">
-        <v>417184.8844078418</v>
+        <v>524250.3357116202</v>
       </c>
       <c r="AE3" t="n">
-        <v>570810.7637449576</v>
+        <v>717302.4376131382</v>
       </c>
       <c r="AF3" t="n">
         <v>7.978489575900265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>20.52734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>516333.3855910767</v>
+        <v>648844.0997076337</v>
       </c>
     </row>
     <row r="4">
@@ -43754,28 +43754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>360.1499860834078</v>
+        <v>447.7096254123426</v>
       </c>
       <c r="AB4" t="n">
-        <v>492.7730996553377</v>
+        <v>612.5760610438466</v>
       </c>
       <c r="AC4" t="n">
-        <v>445.7435266356205</v>
+        <v>554.1126615337225</v>
       </c>
       <c r="AD4" t="n">
-        <v>360149.9860834078</v>
+        <v>447709.6254123426</v>
       </c>
       <c r="AE4" t="n">
-        <v>492773.0996553376</v>
+        <v>612576.0610438467</v>
       </c>
       <c r="AF4" t="n">
         <v>8.947187581978578e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>18.30078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>445743.5266356205</v>
+        <v>554112.6615337225</v>
       </c>
     </row>
     <row r="5">
@@ -43860,28 +43860,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>335.1078600949998</v>
+        <v>422.6333340051539</v>
       </c>
       <c r="AB5" t="n">
-        <v>458.5093580973707</v>
+        <v>578.2655728526317</v>
       </c>
       <c r="AC5" t="n">
-        <v>414.7498684824827</v>
+        <v>523.0767181804048</v>
       </c>
       <c r="AD5" t="n">
-        <v>335107.8600949998</v>
+        <v>422633.3340051539</v>
       </c>
       <c r="AE5" t="n">
-        <v>458509.3580973707</v>
+        <v>578265.5728526318</v>
       </c>
       <c r="AF5" t="n">
         <v>9.43141081275e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>17.36328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>414749.8684824827</v>
+        <v>523076.7181804047</v>
       </c>
     </row>
     <row r="6">
@@ -43966,28 +43966,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>316.2932374761053</v>
+        <v>403.8860311939638</v>
       </c>
       <c r="AB6" t="n">
-        <v>432.7663613876308</v>
+        <v>552.6146860737335</v>
       </c>
       <c r="AC6" t="n">
-        <v>391.4637472481976</v>
+        <v>499.8739160344388</v>
       </c>
       <c r="AD6" t="n">
-        <v>316293.2374761053</v>
+        <v>403886.0311939638</v>
       </c>
       <c r="AE6" t="n">
-        <v>432766.3613876308</v>
+        <v>552614.6860737335</v>
       </c>
       <c r="AF6" t="n">
         <v>9.731503443560551e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.82942708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>391463.7472481976</v>
+        <v>499873.9160344388</v>
       </c>
     </row>
     <row r="7">
@@ -44072,28 +44072,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>309.8505874337774</v>
+        <v>387.6738979697524</v>
       </c>
       <c r="AB7" t="n">
-        <v>423.9512433700579</v>
+        <v>530.4325301675279</v>
       </c>
       <c r="AC7" t="n">
-        <v>383.489931722126</v>
+        <v>479.8087939550702</v>
       </c>
       <c r="AD7" t="n">
-        <v>309850.5874337774</v>
+        <v>387673.8979697524</v>
       </c>
       <c r="AE7" t="n">
-        <v>423951.2433700579</v>
+        <v>530432.530167528</v>
       </c>
       <c r="AF7" t="n">
         <v>9.955378080125001e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16.45182291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>383489.931722126</v>
+        <v>479808.7939550702</v>
       </c>
     </row>
     <row r="8">
@@ -44178,28 +44178,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>305.4072663680375</v>
+        <v>383.2305769040125</v>
       </c>
       <c r="AB8" t="n">
-        <v>417.8716954624219</v>
+        <v>524.352982259892</v>
       </c>
       <c r="AC8" t="n">
-        <v>377.9906073340957</v>
+        <v>474.3094695670399</v>
       </c>
       <c r="AD8" t="n">
-        <v>305407.2663680376</v>
+        <v>383230.5769040125</v>
       </c>
       <c r="AE8" t="n">
-        <v>417871.6954624219</v>
+        <v>524352.9822598919</v>
       </c>
       <c r="AF8" t="n">
         <v>1.010328626697882e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>16.2109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>377990.6073340957</v>
+        <v>474309.4695670399</v>
       </c>
     </row>
     <row r="9">
@@ -44284,28 +44284,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>301.5572092532524</v>
+        <v>379.3805197892274</v>
       </c>
       <c r="AB9" t="n">
-        <v>412.6038774654406</v>
+        <v>519.0851642629106</v>
       </c>
       <c r="AC9" t="n">
-        <v>373.2255424933173</v>
+        <v>469.5444047262614</v>
       </c>
       <c r="AD9" t="n">
-        <v>301557.2092532524</v>
+        <v>379380.5197892274</v>
       </c>
       <c r="AE9" t="n">
-        <v>412603.8774654406</v>
+        <v>519085.1642629106</v>
       </c>
       <c r="AF9" t="n">
         <v>1.022780081203433e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>17</v>
+        <v>16.00911458333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>373225.5424933173</v>
+        <v>469544.4047262614</v>
       </c>
     </row>
     <row r="10">
@@ -44390,28 +44390,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>288.6578479341746</v>
+        <v>376.2164762332523</v>
       </c>
       <c r="AB10" t="n">
-        <v>394.9544022290206</v>
+        <v>514.7559802818755</v>
       </c>
       <c r="AC10" t="n">
-        <v>357.2605084022671</v>
+        <v>465.6283919883283</v>
       </c>
       <c r="AD10" t="n">
-        <v>288657.8479341746</v>
+        <v>376216.4762332523</v>
       </c>
       <c r="AE10" t="n">
-        <v>394954.4022290206</v>
+        <v>514755.9802818755</v>
       </c>
       <c r="AF10" t="n">
         <v>1.031634448851825e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.87239583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>357260.5084022671</v>
+        <v>465628.3919883283</v>
       </c>
     </row>
     <row r="11">
@@ -44496,28 +44496,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>286.5951738595709</v>
+        <v>364.4858042032503</v>
       </c>
       <c r="AB11" t="n">
-        <v>392.13216056139</v>
+        <v>498.7055572897015</v>
       </c>
       <c r="AC11" t="n">
-        <v>354.7076175183541</v>
+        <v>451.1097988396173</v>
       </c>
       <c r="AD11" t="n">
-        <v>286595.1738595709</v>
+        <v>364485.8042032503</v>
       </c>
       <c r="AE11" t="n">
-        <v>392132.16056139</v>
+        <v>498705.5572897015</v>
       </c>
       <c r="AF11" t="n">
         <v>1.037419973167535e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.78776041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>354707.6175183541</v>
+        <v>451109.7988396173</v>
       </c>
     </row>
     <row r="12">
@@ -44602,28 +44602,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>283.8236069031354</v>
+        <v>361.7142372468148</v>
       </c>
       <c r="AB12" t="n">
-        <v>388.3399803786905</v>
+        <v>494.913377107002</v>
       </c>
       <c r="AC12" t="n">
-        <v>351.2773576899331</v>
+        <v>447.6795390111964</v>
       </c>
       <c r="AD12" t="n">
-        <v>283823.6069031354</v>
+        <v>361714.2372468148</v>
       </c>
       <c r="AE12" t="n">
-        <v>388339.9803786905</v>
+        <v>494913.377107002</v>
       </c>
       <c r="AF12" t="n">
         <v>1.044287138985748e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.68359375</v>
       </c>
       <c r="AH12" t="n">
-        <v>351277.3576899332</v>
+        <v>447679.5390111963</v>
       </c>
     </row>
     <row r="13">
@@ -44708,28 +44708,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>281.987463212068</v>
+        <v>359.8780935557474</v>
       </c>
       <c r="AB13" t="n">
-        <v>385.8276875756295</v>
+        <v>492.401084303941</v>
       </c>
       <c r="AC13" t="n">
-        <v>349.0048345859712</v>
+        <v>445.4070159072344</v>
       </c>
       <c r="AD13" t="n">
-        <v>281987.463212068</v>
+        <v>359878.0935557474</v>
       </c>
       <c r="AE13" t="n">
-        <v>385827.6875756294</v>
+        <v>492401.084303941</v>
       </c>
       <c r="AF13" t="n">
         <v>1.047280518957789e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.63802083333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>349004.8345859712</v>
+        <v>445407.0159072344</v>
       </c>
     </row>
     <row r="14">
@@ -44814,28 +44814,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>279.2957297724326</v>
+        <v>357.186360116112</v>
       </c>
       <c r="AB14" t="n">
-        <v>382.144739132622</v>
+        <v>488.7181358609334</v>
       </c>
       <c r="AC14" t="n">
-        <v>345.6733815733137</v>
+        <v>442.0755628945769</v>
       </c>
       <c r="AD14" t="n">
-        <v>279295.7297724326</v>
+        <v>357186.360116112</v>
       </c>
       <c r="AE14" t="n">
-        <v>382144.739132622</v>
+        <v>488718.1358609335</v>
       </c>
       <c r="AF14" t="n">
         <v>1.054072221415363e-05</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.53385416666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>345673.3815733137</v>
+        <v>442075.5628945769</v>
       </c>
     </row>
     <row r="15">
@@ -44920,28 +44920,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>277.6744085418898</v>
+        <v>355.4635536590839</v>
       </c>
       <c r="AB15" t="n">
-        <v>379.9263758973487</v>
+        <v>486.3609160615709</v>
       </c>
       <c r="AC15" t="n">
-        <v>343.6667358117225</v>
+        <v>439.9433128444867</v>
       </c>
       <c r="AD15" t="n">
-        <v>277674.4085418897</v>
+        <v>355463.5536590839</v>
       </c>
       <c r="AE15" t="n">
-        <v>379926.3758973487</v>
+        <v>486360.9160615709</v>
       </c>
       <c r="AF15" t="n">
         <v>1.056889520212578e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.49479166666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>343666.7358117225</v>
+        <v>439943.3128444867</v>
       </c>
     </row>
     <row r="16">
@@ -45026,28 +45026,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>275.5477758143326</v>
+        <v>353.3369209315268</v>
       </c>
       <c r="AB16" t="n">
-        <v>377.0166231790907</v>
+        <v>483.4511633433129</v>
       </c>
       <c r="AC16" t="n">
-        <v>341.0346858090314</v>
+        <v>437.3112628417956</v>
       </c>
       <c r="AD16" t="n">
-        <v>275547.7758143327</v>
+        <v>353336.9209315268</v>
       </c>
       <c r="AE16" t="n">
-        <v>377016.6231790907</v>
+        <v>483451.1633433129</v>
       </c>
       <c r="AF16" t="n">
         <v>1.060662688244563e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>16</v>
+        <v>15.44270833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>341034.6858090314</v>
+        <v>437311.2628417956</v>
       </c>
     </row>
     <row r="17">
@@ -45132,28 +45132,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>273.8534251227772</v>
+        <v>351.6425702399713</v>
       </c>
       <c r="AB17" t="n">
-        <v>374.6983378134275</v>
+        <v>481.1328779776497</v>
       </c>
       <c r="AC17" t="n">
-        <v>338.9376543449332</v>
+        <v>435.2142313776974</v>
       </c>
       <c r="AD17" t="n">
-        <v>273853.4251227772</v>
+        <v>351642.5702399713</v>
       </c>
       <c r="AE17" t="n">
-        <v>374698.3378134275</v>
+        <v>481132.8779776497</v>
       </c>
       <c r="AF17" t="n">
         <v>1.063329060320499e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>15.40364583333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>338937.6543449332</v>
+        <v>435214.2313776974</v>
       </c>
     </row>
     <row r="18">
@@ -45238,28 +45238,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>273.4461665617049</v>
+        <v>351.2353116788991</v>
       </c>
       <c r="AB18" t="n">
-        <v>374.1411086831887</v>
+        <v>480.575648847411</v>
       </c>
       <c r="AC18" t="n">
-        <v>338.4336063808084</v>
+        <v>434.7101834135727</v>
       </c>
       <c r="AD18" t="n">
-        <v>273446.1665617049</v>
+        <v>351235.311678899</v>
       </c>
       <c r="AE18" t="n">
-        <v>374141.1086831887</v>
+        <v>480575.648847411</v>
       </c>
       <c r="AF18" t="n">
         <v>1.063404523681139e-05</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.39713541666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>338433.6063808085</v>
+        <v>434710.1834135727</v>
       </c>
     </row>
     <row r="19">
@@ -45344,28 +45344,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>273.2978665169064</v>
+        <v>351.0870116341005</v>
       </c>
       <c r="AB19" t="n">
-        <v>373.9381980193591</v>
+        <v>480.3727381835813</v>
       </c>
       <c r="AC19" t="n">
-        <v>338.2500612259478</v>
+        <v>434.526638258712</v>
       </c>
       <c r="AD19" t="n">
-        <v>273297.8665169064</v>
+        <v>351087.0116341005</v>
       </c>
       <c r="AE19" t="n">
-        <v>373938.1980193591</v>
+        <v>480372.7381835813</v>
       </c>
       <c r="AF19" t="n">
         <v>1.063278751413406e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.40364583333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>338250.0612259478</v>
+        <v>434526.638258712</v>
       </c>
     </row>
     <row r="20">
@@ -45450,28 +45450,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>273.8281622492377</v>
+        <v>351.6173073664318</v>
       </c>
       <c r="AB20" t="n">
-        <v>374.6637720353314</v>
+        <v>481.0983121995536</v>
       </c>
       <c r="AC20" t="n">
-        <v>338.9063874761852</v>
+        <v>435.1829645089495</v>
       </c>
       <c r="AD20" t="n">
-        <v>273828.1622492376</v>
+        <v>351617.3073664318</v>
       </c>
       <c r="AE20" t="n">
-        <v>374663.7720353313</v>
+        <v>481098.3121995536</v>
       </c>
       <c r="AF20" t="n">
         <v>1.063354214774046e-05</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>15.40364583333333</v>
       </c>
       <c r="AH20" t="n">
-        <v>338906.3874761852</v>
+        <v>435182.9645089494</v>
       </c>
     </row>
   </sheetData>
@@ -45747,28 +45747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.7138388095099</v>
+        <v>284.9180392824861</v>
       </c>
       <c r="AB2" t="n">
-        <v>291.0444585312962</v>
+        <v>389.8374310430669</v>
       </c>
       <c r="AC2" t="n">
-        <v>263.2675838926181</v>
+        <v>352.6318937645867</v>
       </c>
       <c r="AD2" t="n">
-        <v>212713.8388095099</v>
+        <v>284918.0392824861</v>
       </c>
       <c r="AE2" t="n">
-        <v>291044.4585312962</v>
+        <v>389837.431043067</v>
       </c>
       <c r="AF2" t="n">
         <v>2.329115665677828e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.05729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>263267.5838926181</v>
+        <v>352631.8937645867</v>
       </c>
     </row>
   </sheetData>
@@ -46044,28 +46044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>378.2303995408848</v>
+        <v>482.0031007800595</v>
       </c>
       <c r="AB2" t="n">
-        <v>517.5115189994041</v>
+        <v>659.4979069633132</v>
       </c>
       <c r="AC2" t="n">
-        <v>468.1209459580789</v>
+        <v>596.5563523338596</v>
       </c>
       <c r="AD2" t="n">
-        <v>378230.3995408848</v>
+        <v>482003.1007800595</v>
       </c>
       <c r="AE2" t="n">
-        <v>517511.518999404</v>
+        <v>659497.9069633132</v>
       </c>
       <c r="AF2" t="n">
         <v>1.017434925559586e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.2890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>468120.9459580789</v>
+        <v>596556.3523338597</v>
       </c>
     </row>
     <row r="3">
@@ -46150,28 +46150,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.4322249770599</v>
+        <v>371.3187104952054</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.9092067115412</v>
+        <v>508.0546411249052</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.5059420710171</v>
+        <v>459.5666192351107</v>
       </c>
       <c r="AD3" t="n">
-        <v>286432.2249770599</v>
+        <v>371318.7104952054</v>
       </c>
       <c r="AE3" t="n">
-        <v>391909.2067115412</v>
+        <v>508054.6411249052</v>
       </c>
       <c r="AF3" t="n">
         <v>1.24958654777379e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.33072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>354505.9420710171</v>
+        <v>459566.6192351107</v>
       </c>
     </row>
     <row r="4">
@@ -46256,28 +46256,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>263.2347151069114</v>
+        <v>338.7122581833232</v>
       </c>
       <c r="AB4" t="n">
-        <v>360.1693503052966</v>
+        <v>463.4410545766358</v>
       </c>
       <c r="AC4" t="n">
-        <v>325.7952930130164</v>
+        <v>419.2108907714461</v>
       </c>
       <c r="AD4" t="n">
-        <v>263234.7151069114</v>
+        <v>338712.2581833233</v>
       </c>
       <c r="AE4" t="n">
-        <v>360169.3503052966</v>
+        <v>463441.0545766358</v>
       </c>
       <c r="AF4" t="n">
         <v>1.327369650774192e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.31510416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>325795.2930130163</v>
+        <v>419210.8907714462</v>
       </c>
     </row>
     <row r="5">
@@ -46362,28 +46362,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>245.2561270908162</v>
+        <v>320.8009899749355</v>
       </c>
       <c r="AB5" t="n">
-        <v>335.5702530221922</v>
+        <v>438.9340672245353</v>
       </c>
       <c r="AC5" t="n">
-        <v>303.5438990496622</v>
+        <v>397.0428158964573</v>
       </c>
       <c r="AD5" t="n">
-        <v>245256.1270908162</v>
+        <v>320800.9899749355</v>
       </c>
       <c r="AE5" t="n">
-        <v>335570.2530221922</v>
+        <v>438934.0672245353</v>
       </c>
       <c r="AF5" t="n">
         <v>1.372116559899745e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.78776041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>303543.8990496622</v>
+        <v>397042.8158964573</v>
       </c>
     </row>
     <row r="6">
@@ -46468,28 +46468,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>239.7469461612214</v>
+        <v>315.2918090453406</v>
       </c>
       <c r="AB6" t="n">
-        <v>328.0323486264151</v>
+        <v>431.3961628287544</v>
       </c>
       <c r="AC6" t="n">
-        <v>296.7254016699004</v>
+        <v>390.2243185166944</v>
       </c>
       <c r="AD6" t="n">
-        <v>239746.9461612214</v>
+        <v>315291.8090453406</v>
       </c>
       <c r="AE6" t="n">
-        <v>328032.3486264151</v>
+        <v>431396.1628287543</v>
       </c>
       <c r="AF6" t="n">
         <v>1.397301251504238e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.50130208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>296725.4016699004</v>
+        <v>390224.3185166944</v>
       </c>
     </row>
     <row r="7">
@@ -46574,28 +46574,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>236.6959028804677</v>
+        <v>312.1392805381017</v>
       </c>
       <c r="AB7" t="n">
-        <v>323.8577766071602</v>
+        <v>427.0827342454081</v>
       </c>
       <c r="AC7" t="n">
-        <v>292.9492449451133</v>
+        <v>386.3225575034077</v>
       </c>
       <c r="AD7" t="n">
-        <v>236695.9028804677</v>
+        <v>312139.2805381017</v>
       </c>
       <c r="AE7" t="n">
-        <v>323857.7766071602</v>
+        <v>427082.734245408</v>
       </c>
       <c r="AF7" t="n">
         <v>1.410209653541944e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.35807291666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>292949.2449451133</v>
+        <v>386322.5575034077</v>
       </c>
     </row>
     <row r="8">
@@ -46680,28 +46680,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>236.9440793629537</v>
+        <v>312.3874570205878</v>
       </c>
       <c r="AB8" t="n">
-        <v>324.1973426192711</v>
+        <v>427.4223002575191</v>
       </c>
       <c r="AC8" t="n">
-        <v>293.2564032536123</v>
+        <v>386.6297158119067</v>
       </c>
       <c r="AD8" t="n">
-        <v>236944.0793629538</v>
+        <v>312387.4570205878</v>
       </c>
       <c r="AE8" t="n">
-        <v>324197.3426192711</v>
+        <v>427422.3002575191</v>
       </c>
       <c r="AF8" t="n">
         <v>1.410409268006444e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.35807291666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>293256.4032536123</v>
+        <v>386629.7158119067</v>
       </c>
     </row>
   </sheetData>
@@ -46977,28 +46977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>464.7028162170121</v>
+        <v>588.848808718039</v>
       </c>
       <c r="AB2" t="n">
-        <v>635.8268943894634</v>
+        <v>805.6889182640147</v>
       </c>
       <c r="AC2" t="n">
-        <v>575.1444679775833</v>
+        <v>728.7950986963953</v>
       </c>
       <c r="AD2" t="n">
-        <v>464702.8162170121</v>
+        <v>588848.808718039</v>
       </c>
       <c r="AE2" t="n">
-        <v>635826.8943894634</v>
+        <v>805688.9182640146</v>
       </c>
       <c r="AF2" t="n">
         <v>8.073146774534098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.88671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>575144.4679775833</v>
+        <v>728795.0986963953</v>
       </c>
     </row>
     <row r="3">
@@ -47083,28 +47083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>328.3422929362536</v>
+        <v>414.2695046706488</v>
       </c>
       <c r="AB3" t="n">
-        <v>449.2524106350165</v>
+        <v>566.8218125710537</v>
       </c>
       <c r="AC3" t="n">
-        <v>406.3763910937282</v>
+        <v>512.725134318682</v>
       </c>
       <c r="AD3" t="n">
-        <v>328342.2929362536</v>
+        <v>414269.5046706488</v>
       </c>
       <c r="AE3" t="n">
-        <v>449252.4106350165</v>
+        <v>566821.8125710536</v>
       </c>
       <c r="AF3" t="n">
         <v>1.052690703922902e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.3203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>406376.3910937282</v>
+        <v>512725.134318682</v>
       </c>
     </row>
     <row r="4">
@@ -47189,28 +47189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>289.5122724522362</v>
+        <v>375.4726385755551</v>
       </c>
       <c r="AB4" t="n">
-        <v>396.1234635491818</v>
+        <v>513.7382287828127</v>
       </c>
       <c r="AC4" t="n">
-        <v>358.31799615082</v>
+        <v>464.7077732639129</v>
       </c>
       <c r="AD4" t="n">
-        <v>289512.2724522362</v>
+        <v>375472.6385755551</v>
       </c>
       <c r="AE4" t="n">
-        <v>396123.4635491818</v>
+        <v>513738.2287828127</v>
       </c>
       <c r="AF4" t="n">
         <v>1.136615644522693e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.96614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>358317.9961508201</v>
+        <v>464707.7732639129</v>
       </c>
     </row>
     <row r="5">
@@ -47295,28 +47295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>279.3972554103956</v>
+        <v>355.7695191956687</v>
       </c>
       <c r="AB5" t="n">
-        <v>382.283650989478</v>
+        <v>486.779551606973</v>
       </c>
       <c r="AC5" t="n">
-        <v>345.7990358775154</v>
+        <v>440.3219944009944</v>
       </c>
       <c r="AD5" t="n">
-        <v>279397.2554103956</v>
+        <v>355769.5191956687</v>
       </c>
       <c r="AE5" t="n">
-        <v>382283.650989478</v>
+        <v>486779.5516069731</v>
       </c>
       <c r="AF5" t="n">
         <v>1.183866008185477e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.2890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>345799.0358775154</v>
+        <v>440321.9944009944</v>
       </c>
     </row>
     <row r="6">
@@ -47401,28 +47401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>263.3638637652834</v>
+        <v>349.2900644698215</v>
       </c>
       <c r="AB6" t="n">
-        <v>360.3460571973179</v>
+        <v>477.9140757977009</v>
       </c>
       <c r="AC6" t="n">
-        <v>325.9551352472728</v>
+        <v>432.3026271601857</v>
       </c>
       <c r="AD6" t="n">
-        <v>263363.8637652834</v>
+        <v>349290.0644698215</v>
       </c>
       <c r="AE6" t="n">
-        <v>360346.0571973179</v>
+        <v>477914.0757977009</v>
       </c>
       <c r="AF6" t="n">
         <v>1.211416376966912e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.91796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>325955.1352472728</v>
+        <v>432302.6271601857</v>
       </c>
     </row>
     <row r="7">
@@ -47507,28 +47507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>259.4766888259729</v>
+        <v>335.9162724189503</v>
       </c>
       <c r="AB7" t="n">
-        <v>355.027452955298</v>
+        <v>459.6154635036345</v>
       </c>
       <c r="AC7" t="n">
-        <v>321.1441311294033</v>
+        <v>415.7504087412014</v>
       </c>
       <c r="AD7" t="n">
-        <v>259476.6888259728</v>
+        <v>335916.2724189503</v>
       </c>
       <c r="AE7" t="n">
-        <v>355027.452955298</v>
+        <v>459615.4635036346</v>
       </c>
       <c r="AF7" t="n">
         <v>1.227768853921054e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.70963541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>321144.1311294032</v>
+        <v>415750.4087412014</v>
       </c>
     </row>
     <row r="8">
@@ -47613,28 +47613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>255.5362700666365</v>
+        <v>331.9758536596172</v>
       </c>
       <c r="AB8" t="n">
-        <v>349.6359981696021</v>
+        <v>454.2240087181083</v>
       </c>
       <c r="AC8" t="n">
-        <v>316.267229221605</v>
+        <v>410.8735068334515</v>
       </c>
       <c r="AD8" t="n">
-        <v>255536.2700666365</v>
+        <v>331975.8536596172</v>
       </c>
       <c r="AE8" t="n">
-        <v>349635.9981696021</v>
+        <v>454224.0087181083</v>
       </c>
       <c r="AF8" t="n">
         <v>1.240033211636661e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.55338541666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>316267.229221605</v>
+        <v>410873.5068334515</v>
       </c>
     </row>
     <row r="9">
@@ -47719,28 +47719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>252.5438746615134</v>
+        <v>328.8819730280088</v>
       </c>
       <c r="AB9" t="n">
-        <v>345.5416707611466</v>
+        <v>449.9908247455613</v>
       </c>
       <c r="AC9" t="n">
-        <v>312.5636586745866</v>
+        <v>407.0443319979334</v>
       </c>
       <c r="AD9" t="n">
-        <v>252543.8746615134</v>
+        <v>328881.9730280088</v>
       </c>
       <c r="AE9" t="n">
-        <v>345541.6707611466</v>
+        <v>449990.8247455613</v>
       </c>
       <c r="AF9" t="n">
         <v>1.249483284369218e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.43619791666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>312563.6586745866</v>
+        <v>407044.3319979334</v>
       </c>
     </row>
     <row r="10">
@@ -47825,28 +47825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>249.5907735528685</v>
+        <v>325.9288719193639</v>
       </c>
       <c r="AB10" t="n">
-        <v>341.5011075426745</v>
+        <v>445.9502615270873</v>
       </c>
       <c r="AC10" t="n">
-        <v>308.9087211387182</v>
+        <v>403.3893944620643</v>
       </c>
       <c r="AD10" t="n">
-        <v>249590.7735528685</v>
+        <v>325928.8719193639</v>
       </c>
       <c r="AE10" t="n">
-        <v>341501.1075426745</v>
+        <v>445950.2615270872</v>
       </c>
       <c r="AF10" t="n">
         <v>1.256030199961365e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.35807291666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>308908.7211387182</v>
+        <v>403389.3944620643</v>
       </c>
     </row>
     <row r="11">
@@ -47931,28 +47931,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>249.2289151605536</v>
+        <v>325.567013527049</v>
       </c>
       <c r="AB11" t="n">
-        <v>341.0059969262439</v>
+        <v>445.4551509106564</v>
       </c>
       <c r="AC11" t="n">
-        <v>308.4608631846275</v>
+        <v>402.9415365079735</v>
       </c>
       <c r="AD11" t="n">
-        <v>249228.9151605536</v>
+        <v>325567.013527049</v>
       </c>
       <c r="AE11" t="n">
-        <v>341005.9969262439</v>
+        <v>445455.1509106564</v>
       </c>
       <c r="AF11" t="n">
         <v>1.259496214098384e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH11" t="n">
-        <v>308460.8631846275</v>
+        <v>402941.5365079735</v>
       </c>
     </row>
     <row r="12">
@@ -48037,28 +48037,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>249.9192426426546</v>
+        <v>326.25734100915</v>
       </c>
       <c r="AB12" t="n">
-        <v>341.9505334423531</v>
+        <v>446.3996874267661</v>
       </c>
       <c r="AC12" t="n">
-        <v>309.3152544613048</v>
+        <v>403.795927784651</v>
       </c>
       <c r="AD12" t="n">
-        <v>249919.2426426546</v>
+        <v>326257.34100915</v>
       </c>
       <c r="AE12" t="n">
-        <v>341950.5334423531</v>
+        <v>446399.6874267661</v>
       </c>
       <c r="AF12" t="n">
         <v>1.25908147736404e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.31901041666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>309315.2544613049</v>
+        <v>403795.9277846511</v>
       </c>
     </row>
   </sheetData>
